--- a/Estimulador/Caracterizacion/Tablas_Resultados.xlsx
+++ b/Estimulador/Caracterizacion/Tablas_Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Universidad UVG\Sexto Año\Segundo Ciclo\Tesis\Tesis-2022-Erick-Aquino\Estimulador\Caracterizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E59C268-2DAE-46F8-9B25-3097BF162039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9C75A3-8F7A-4429-959A-3838B2B101B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{EFFD592A-B6F9-484D-AA51-F79BFFF83EBA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Error (%)</t>
   </si>
@@ -81,6 +81,51 @@
   <si>
     <t>Amplitud experimental (V)</t>
   </si>
+  <si>
+    <t>Amplitud</t>
+  </si>
+  <si>
+    <t>Amplitud experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frecuencia (Hz) </t>
+  </si>
+  <si>
+    <t>Exp Frecuencia (Hz)</t>
+  </si>
+  <si>
+    <t>Error Frecuencia (%)</t>
+  </si>
+  <si>
+    <t>Error Amplitud (%)</t>
+  </si>
+  <si>
+    <t>error tiempo de subida (%)</t>
+  </si>
+  <si>
+    <t>Promedio Bajada (ms)</t>
+  </si>
+  <si>
+    <t>error bajada (%)</t>
+  </si>
+  <si>
+    <t>DUTY CYCLE 50%</t>
+  </si>
+  <si>
+    <t>DUTY CYCLE 55%</t>
+  </si>
+  <si>
+    <t>DUTY CYCLE 20%</t>
+  </si>
+  <si>
+    <t>Tiempo Rampa Subida Teorico (s)</t>
+  </si>
+  <si>
+    <t>Tiempo Rampa Bajada (s)</t>
+  </si>
+  <si>
+    <t>Promedio subida (s)</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +149,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +166,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,20 +215,167 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="61">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -179,13 +383,13 @@
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -428,48 +632,141 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DB0725B-06C7-40AB-8951-220298407BB2}" name="Tabla1" displayName="Tabla1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DB0725B-06C7-40AB-8951-220298407BB2}" name="Tabla1" displayName="Tabla1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A1:J23" xr:uid="{4DB0725B-06C7-40AB-8951-220298407BB2}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D8BE834C-C6A0-4D47-BBA1-05DAD44C12B6}" name="Frequencia PWM Teorica (Hz)" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E3D22371-E809-4283-A1E6-06CCF407C76F}" name="Pomedio PWM (Hz)" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{27EE4F05-B556-4BCF-B7F8-6EDA21BE7791}" name="Error (%)" dataDxfId="14" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{D8BE834C-C6A0-4D47-BBA1-05DAD44C12B6}" name="Frequencia PWM Teorica (Hz)" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{E3D22371-E809-4283-A1E6-06CCF407C76F}" name="Pomedio PWM (Hz)" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{27EE4F05-B556-4BCF-B7F8-6EDA21BE7791}" name="Error (%)" dataDxfId="56" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla1[[#This Row],[Pomedio PWM (Hz)]]-Tabla1[[#This Row],[Frequencia PWM Teorica (Hz)]])/Tabla1[[#This Row],[Frequencia PWM Teorica (Hz)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C87F5F2D-3C48-4667-A3F8-31665B839217}" name="Ciclo de trabajo teorico" dataDxfId="13" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{D2FC5D2D-9F0F-40CD-92B9-A87E4EF0119F}" name="Promedio ciclo de trabajo (%)" dataDxfId="12" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{5ED67E0A-997F-46E6-BF33-45D8CF858762}" name="Error ciclo de trabajo (%)" dataDxfId="11" dataCellStyle="Porcentaje">
+    <tableColumn id="8" xr3:uid="{C87F5F2D-3C48-4667-A3F8-31665B839217}" name="Ciclo de trabajo teorico" dataDxfId="55" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{D2FC5D2D-9F0F-40CD-92B9-A87E4EF0119F}" name="Promedio ciclo de trabajo (%)" dataDxfId="54" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{5ED67E0A-997F-46E6-BF33-45D8CF858762}" name="Error ciclo de trabajo (%)" dataDxfId="53" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla1[[#This Row],[Promedio ciclo de trabajo (%)]]-Tabla1[[#This Row],[Ciclo de trabajo teorico]])/Tabla1[[#This Row],[Ciclo de trabajo teorico]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E6A42BD8-6B1E-494C-92D0-8809E4C6E417}" name="Ancho de pulso teorico (ms)" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{E6A42BD8-6B1E-494C-92D0-8809E4C6E417}" name="Ancho de pulso teorico (ms)" dataDxfId="52">
       <calculatedColumnFormula>(1/Tabla1[[#This Row],[Frequencia PWM Teorica (Hz)]])*Tabla1[[#This Row],[Ciclo de trabajo teorico]]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{18FA8CF7-1748-4290-934F-195BB10A3E9D}" name="Promedio Ancho de pulso (ms)" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{8C38799C-6282-4F30-8155-2F925A8104B1}" name="Error ancho de pulso (%)" dataDxfId="8" dataCellStyle="Porcentaje">
+    <tableColumn id="6" xr3:uid="{18FA8CF7-1748-4290-934F-195BB10A3E9D}" name="Promedio Ancho de pulso (ms)" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{8C38799C-6282-4F30-8155-2F925A8104B1}" name="Error ancho de pulso (%)" dataDxfId="50" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla1[[#This Row],[Promedio Ancho de pulso (ms)]]-Tabla1[[#This Row],[Ancho de pulso teorico (ms)]])/Tabla1[[#This Row],[Ancho de pulso teorico (ms)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1B8DFAA5-0DC3-4A17-85A3-B56B9D035E8D}" name="voltaje (v)" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{1B8DFAA5-0DC3-4A17-85A3-B56B9D035E8D}" name="voltaje (v)" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{541620B9-3328-4E80-87D7-6993CCFCC757}" name="Tabla2" displayName="Tabla2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{541620B9-3328-4E80-87D7-6993CCFCC757}" name="Tabla2" displayName="Tabla2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:E16" xr:uid="{541620B9-3328-4E80-87D7-6993CCFCC757}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C17AFB38-CE22-46D7-8F22-0682A82000DC}" name="Amplitud  teórica (V)" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{C17AFB38-CE22-46D7-8F22-0682A82000DC}" name="Amplitud  teórica (V)" dataDxfId="46">
       <calculatedColumnFormula>A1-0.25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CAC73A74-053C-4BEA-BFA3-0EF61C871549}" name="Amplitud experimental (V)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{58572678-C524-4439-815F-B36F210BCB44}" name="Error (%)" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{CAC73A74-053C-4BEA-BFA3-0EF61C871549}" name="Amplitud experimental (V)" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{58572678-C524-4439-815F-B36F210BCB44}" name="Error (%)" dataDxfId="44">
       <calculatedColumnFormula>ABS((Tabla2[[#This Row],[Amplitud experimental (V)]]-Tabla2[[#This Row],[Amplitud  teórica (V)]])/Tabla2[[#This Row],[Amplitud  teórica (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C3BEE760-7C9E-4D95-A987-D6B7F4281D8C}" name="Potenciometro (%)" dataDxfId="0" dataCellStyle="Porcentaje">
+    <tableColumn id="4" xr3:uid="{C3BEE760-7C9E-4D95-A987-D6B7F4281D8C}" name="Potenciometro (%)" dataDxfId="43" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>(Tabla2[[#This Row],[Value sent (0 - 255)]]*100/255)*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6E5851DF-90B5-4596-B293-DB5BB1C46723}" name="Value sent (0 - 255)" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{6E5851DF-90B5-4596-B293-DB5BB1C46723}" name="Value sent (0 - 255)" dataDxfId="42">
       <calculatedColumnFormula>Tabla2[[#This Row],[Amplitud  teórica (V)]]*255/3.3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BBDF8BE-AC6E-4031-9579-29D05467F7BF}" name="Tabla3" displayName="Tabla3" ref="A2:L17" totalsRowShown="0" headerRowDxfId="41" dataDxfId="34">
+  <autoFilter ref="A2:L17" xr:uid="{5BBDF8BE-AC6E-4031-9579-29D05467F7BF}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{9F71D84F-9878-4D36-8936-9D003F31027F}" name="Frecuencia (Hz) " dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{5282C3EA-F82F-4E75-BDCF-1084006587B3}" name="Exp Frecuencia (Hz)" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{ED172ABE-988C-4750-854D-F9F0691C9376}" name="Error Frecuencia (%)" dataDxfId="32" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{88E66329-9A9A-4F1D-81CC-884B1C7872B9}" name="Amplitud" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{09F1E6EF-B67B-451B-9DE2-1EE82D3585CB}" name="Amplitud experimental" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{C80D96D2-FC0F-48F2-9D46-C0DFF83B2CD7}" name="Error Amplitud (%)" dataDxfId="31">
+      <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D4F0D9EB-B70D-4932-A0EB-05BFE46B43ED}" name="Tiempo Rampa Subida Teorico (s)" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{2EBD1AB8-5FE1-4887-AE3B-19D56A70A9EF}" name="Promedio subida (s)" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{CCAC1463-901C-4C7D-A762-180D99650D11}" name="error tiempo de subida (%)" dataDxfId="30">
+      <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{30C74FAF-B5D2-44CA-BF59-EB5E6D7B1A9C}" name="Tiempo Rampa Bajada (s)" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{1891CEE3-E6E8-47C1-98E4-60A57F883566}" name="Promedio Bajada (ms)" dataDxfId="28">
+      <calculatedColumnFormula>Tabla3[[#This Row],[Promedio subida (s)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{16438C67-DAE6-4F33-8725-B2B824DE7049}" name="error bajada (%)" dataDxfId="29">
+      <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{04551ECA-EF0C-4696-9301-5248DE3C38A9}" name="Tabla311" displayName="Tabla311" ref="A22:L37" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A22:L37" xr:uid="{04551ECA-EF0C-4696-9301-5248DE3C38A9}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{954A970E-0EE2-41A4-96CD-DF54CD9B89BD}" name="Frecuencia (Hz) " dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{4F819BC9-EAF4-4102-98E5-2D695C220C79}" name="Exp Frecuencia (Hz)" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{3EA23BCF-637E-4183-951D-AE5A4E1B4996}" name="Error Frecuencia (%)" dataDxfId="23" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{57FDEE6C-38A0-4878-90E5-D462DC893965}" name="Amplitud" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{A1EA1D9B-8E35-45C2-BC97-1F7531639C8E}" name="Amplitud experimental" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{5C5B86F0-2C62-4EC7-90DB-16CD3F02F215}" name="Error Amplitud (%)" dataDxfId="20">
+      <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A196DC78-24A3-49DB-8F89-7372B726AF8D}" name="Tiempo Rampa Subida Teorico (s)" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{61205670-DD09-4734-9B60-2A19181A3B09}" name="Promedio subida (s)" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{CB6D4961-C564-4255-A528-66DC8939E53F}" name="error tiempo de subida (%)" dataDxfId="17">
+      <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{82C89E9A-C54F-45D9-BA16-F7CA53FDAD9C}" name="Tiempo Rampa Bajada (s)" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{AADECCD1-0E47-4899-B4DB-3980D5EB4FA0}" name="Promedio Bajada (ms)" dataDxfId="15">
+      <calculatedColumnFormula>Tabla311[[#This Row],[Promedio subida (s)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{B9442908-7763-415B-A1D9-3FDB69AA335D}" name="error bajada (%)" dataDxfId="14">
+      <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FD84326B-B51B-43E3-A954-A199DB93B556}" name="Tabla312" displayName="Tabla312" ref="A41:L56" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A41:L56" xr:uid="{FD84326B-B51B-43E3-A954-A199DB93B556}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{9EA3655E-189F-41AE-BB30-A54F6B6FBD31}" name="Frecuencia (Hz) " dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{43A90E76-0F57-46ED-9A57-AA589374EFAC}" name="Exp Frecuencia (Hz)" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{402459F6-1584-430A-83A0-BCD4F9F04646}" name="Error Frecuencia (%)" dataDxfId="9" dataCellStyle="Porcentaje">
+      <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{57E12FE0-ED8A-4975-B183-AD60486386D0}" name="Amplitud" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{8BB747FA-A49A-40D7-8EB0-CE09BDEFD4C6}" name="Amplitud experimental" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{5AD41EFA-DE50-4D69-927C-30DDC6471368}" name="Error Amplitud (%)" dataDxfId="6">
+      <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8F77CD90-8B24-4F57-B9D9-D92BD38EEF90}" name="Tiempo Rampa Subida Teorico (s)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{369A3313-8A54-4DE9-ABDF-57550D7CA766}" name="Promedio subida (s)" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{623ED2C3-F247-4060-B588-027666E64CEF}" name="error tiempo de subida (%)" dataDxfId="3">
+      <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{E3C34122-9074-4143-952B-814317832A8D}" name="Tiempo Rampa Bajada (s)" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{60537B1A-AA51-4135-9C45-7A7737C1206F}" name="Promedio Bajada (ms)" dataDxfId="1">
+      <calculatedColumnFormula>Tabla312[[#This Row],[Promedio subida (s)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{AC06E1BE-4CD9-4E21-87BD-693B0C461F93}" name="error bajada (%)" dataDxfId="0">
+      <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1629,7 +1926,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1976,12 +2273,2024 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E868A03C-271A-4F8D-9BE9-99D478C798BF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="C3" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1.3333333333333286E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="F3" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>6.0606060606060667E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I3" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.98</v>
+      </c>
+      <c r="L3" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="C4" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1.3333333333333286E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F4" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>4.4444444444443499E-3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="I4" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>2.08</v>
+      </c>
+      <c r="L4" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="I5" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.92</v>
+      </c>
+      <c r="L5" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="C6" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>4.0000000000000565E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="F6" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>6.0606060606060667E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I6" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.98</v>
+      </c>
+      <c r="L6" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>24.4</v>
+      </c>
+      <c r="C7" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>2.4000000000000056E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F7" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>4.4444444444443499E-3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="I7" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.95</v>
+      </c>
+      <c r="L7" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="I8" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.94</v>
+      </c>
+      <c r="L8" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="C9" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>9.9999999999999638E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="F9" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>9.0909090909091668E-3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>2</v>
+      </c>
+      <c r="L9" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="C10" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F10" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>2.2222222222222143E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I10" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+      <c r="K10" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.98</v>
+      </c>
+      <c r="L10" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="F11" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I11" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.98</v>
+      </c>
+      <c r="L11" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="11">
+        <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="11">
+        <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="2">
+        <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="C23" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>2.0000000000000049E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.36</v>
+      </c>
+      <c r="F23" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>1.8181818181818198E-2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I23" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+      <c r="K23" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.98</v>
+      </c>
+      <c r="L23" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="C24" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>4.666666666666662E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="F24" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>8.8888888888888976E-3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="I24" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>2.08</v>
+      </c>
+      <c r="L24" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>30</v>
+      </c>
+      <c r="B25" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="C25" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>3.6666666666666715E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="F25" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="I25" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.92</v>
+      </c>
+      <c r="L25" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="C26" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>4.0000000000000565E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="F26" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>6.0606060606060667E-3</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I26" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+      <c r="K26" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.98</v>
+      </c>
+      <c r="L26" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25.1</v>
+      </c>
+      <c r="C27" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>4.0000000000000565E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F27" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>4.4444444444443499E-3</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="I27" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.95</v>
+      </c>
+      <c r="L27" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="F28" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="I28" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+      <c r="K28" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.94</v>
+      </c>
+      <c r="L28" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C29" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>5.0000000000000712E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="F29" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>3.0303030303030196E-2</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>2</v>
+      </c>
+      <c r="L29" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="C30" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1.5000000000000036E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F30" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>1.3333333333333246E-2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I30" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+      <c r="K30" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.98</v>
+      </c>
+      <c r="L30" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="C31" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>9.9999999999999638E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="F31" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="I31" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.99</v>
+      </c>
+      <c r="L31" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+      <c r="K32" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>15</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+      <c r="K33" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>15</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+      <c r="K34" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+      <c r="K35" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+      <c r="K36" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="11">
+        <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="11">
+        <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="11">
+        <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+      <c r="K37" s="2">
+        <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="10">
+        <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="C42" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1.3333333333333286E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="F42" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>6.0606060606060667E-3</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I42" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2</v>
+      </c>
+      <c r="K42" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.98</v>
+      </c>
+      <c r="L42" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="C43" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>2.0000000000000049E-2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F43" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>4.4444444444443499E-3</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="I43" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2</v>
+      </c>
+      <c r="K43" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>2.08</v>
+      </c>
+      <c r="L43" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>30</v>
+      </c>
+      <c r="B44" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="C44" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>3.9999999999999973E-2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F44" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="I44" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.92</v>
+      </c>
+      <c r="L44" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>25</v>
+      </c>
+      <c r="B45" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="C45" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>7.9999999999999724E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="F45" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>9.0909090909091668E-3</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I45" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+      <c r="K45" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.98</v>
+      </c>
+      <c r="L45" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>25</v>
+      </c>
+      <c r="B46" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="C46" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>7.9999999999999724E-3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2.23</v>
+      </c>
+      <c r="F46" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>8.8888888888888976E-3</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="I46" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2</v>
+      </c>
+      <c r="K46" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.95</v>
+      </c>
+      <c r="L46" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>25</v>
+      </c>
+      <c r="B47" s="2">
+        <v>25</v>
+      </c>
+      <c r="C47" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="F47" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1.94</v>
+      </c>
+      <c r="I47" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+      <c r="K47" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.94</v>
+      </c>
+      <c r="L47" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>20</v>
+      </c>
+      <c r="B48" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C48" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>5.0000000000000712E-3</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="F48" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>9.0909090909091668E-3</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I48" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2</v>
+      </c>
+      <c r="K48" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>1.98</v>
+      </c>
+      <c r="L48" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>20</v>
+      </c>
+      <c r="B49" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="C49" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>9.9999999999999638E-3</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F49" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>4.4444444444443499E-3</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2</v>
+      </c>
+      <c r="I49" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>2</v>
+      </c>
+      <c r="K49" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>2</v>
+      </c>
+      <c r="L49" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>20</v>
+      </c>
+      <c r="B50" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="C50" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>9.9999999999999638E-3</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="F50" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>2</v>
+      </c>
+      <c r="K50" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>15</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>2</v>
+      </c>
+      <c r="K51" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>15</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2</v>
+      </c>
+      <c r="K52" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>15</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>2</v>
+      </c>
+      <c r="K53" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>10</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>2</v>
+      </c>
+      <c r="K54" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>10</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J55" s="2">
+        <v>2</v>
+      </c>
+      <c r="K55" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>10</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="11">
+        <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="11">
+        <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="11">
+        <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
+        <v>1</v>
+      </c>
+      <c r="J56" s="2">
+        <v>2</v>
+      </c>
+      <c r="K56" s="2">
+        <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="10">
+        <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A40:L40"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Estimulador/Caracterizacion/Tablas_Resultados.xlsx
+++ b/Estimulador/Caracterizacion/Tablas_Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Universidad UVG\Sexto Año\Segundo Ciclo\Tesis\Tesis-2022-Erick-Aquino\Estimulador\Caracterizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9C75A3-8F7A-4429-959A-3838B2B101B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07401CD4-307D-4242-B38A-DE9841B396F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{EFFD592A-B6F9-484D-AA51-F79BFFF83EBA}"/>
   </bookViews>
@@ -215,13 +215,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -331,20 +331,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -681,29 +681,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BBDF8BE-AC6E-4031-9579-29D05467F7BF}" name="Tabla3" displayName="Tabla3" ref="A2:L17" totalsRowShown="0" headerRowDxfId="41" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BBDF8BE-AC6E-4031-9579-29D05467F7BF}" name="Tabla3" displayName="Tabla3" ref="A2:L17" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A2:L17" xr:uid="{5BBDF8BE-AC6E-4031-9579-29D05467F7BF}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{9F71D84F-9878-4D36-8936-9D003F31027F}" name="Frecuencia (Hz) " dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{5282C3EA-F82F-4E75-BDCF-1084006587B3}" name="Exp Frecuencia (Hz)" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{ED172ABE-988C-4750-854D-F9F0691C9376}" name="Error Frecuencia (%)" dataDxfId="32" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{9F71D84F-9878-4D36-8936-9D003F31027F}" name="Frecuencia (Hz) " dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{5282C3EA-F82F-4E75-BDCF-1084006587B3}" name="Exp Frecuencia (Hz)" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{ED172ABE-988C-4750-854D-F9F0691C9376}" name="Error Frecuencia (%)" dataDxfId="37" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{88E66329-9A9A-4F1D-81CC-884B1C7872B9}" name="Amplitud" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{09F1E6EF-B67B-451B-9DE2-1EE82D3585CB}" name="Amplitud experimental" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{C80D96D2-FC0F-48F2-9D46-C0DFF83B2CD7}" name="Error Amplitud (%)" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{88E66329-9A9A-4F1D-81CC-884B1C7872B9}" name="Amplitud" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{09F1E6EF-B67B-451B-9DE2-1EE82D3585CB}" name="Amplitud experimental" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{C80D96D2-FC0F-48F2-9D46-C0DFF83B2CD7}" name="Error Amplitud (%)" dataDxfId="34">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D4F0D9EB-B70D-4932-A0EB-05BFE46B43ED}" name="Tiempo Rampa Subida Teorico (s)" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{2EBD1AB8-5FE1-4887-AE3B-19D56A70A9EF}" name="Promedio subida (s)" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{CCAC1463-901C-4C7D-A762-180D99650D11}" name="error tiempo de subida (%)" dataDxfId="30">
+    <tableColumn id="5" xr3:uid="{D4F0D9EB-B70D-4932-A0EB-05BFE46B43ED}" name="Tiempo Rampa Subida Teorico (s)" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{2EBD1AB8-5FE1-4887-AE3B-19D56A70A9EF}" name="Promedio subida (s)" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{CCAC1463-901C-4C7D-A762-180D99650D11}" name="error tiempo de subida (%)" dataDxfId="31">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C74FAF-B5D2-44CA-BF59-EB5E6D7B1A9C}" name="Tiempo Rampa Bajada (s)" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{1891CEE3-E6E8-47C1-98E4-60A57F883566}" name="Promedio Bajada (ms)" dataDxfId="28">
+    <tableColumn id="8" xr3:uid="{30C74FAF-B5D2-44CA-BF59-EB5E6D7B1A9C}" name="Tiempo Rampa Bajada (s)" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{1891CEE3-E6E8-47C1-98E4-60A57F883566}" name="Promedio Bajada (ms)" dataDxfId="29">
       <calculatedColumnFormula>Tabla3[[#This Row],[Promedio subida (s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{16438C67-DAE6-4F33-8725-B2B824DE7049}" name="error bajada (%)" dataDxfId="29">
+    <tableColumn id="10" xr3:uid="{16438C67-DAE6-4F33-8725-B2B824DE7049}" name="error bajada (%)" dataDxfId="28">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2275,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E868A03C-271A-4F8D-9BE9-99D478C798BF}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2295,20 +2295,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -2355,7 +2355,7 @@
       <c r="B3" s="2">
         <v>29.6</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>1.3333333333333286E-2</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="E3" s="2">
         <v>3.28</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
         <v>6.0606060606060667E-3</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="H3" s="2">
         <v>1.98</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -2386,7 +2386,7 @@
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
         <v>1.98</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -2398,7 +2398,7 @@
       <c r="B4" s="2">
         <v>29.6</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>1.3333333333333286E-2</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="E4" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
         <v>4.4444444444443499E-3</v>
       </c>
@@ -2418,7 +2418,7 @@
       <c r="H4" s="2">
         <v>2.08</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -2429,7 +2429,7 @@
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
         <v>2.08</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -2441,7 +2441,7 @@
       <c r="B5" s="2">
         <v>30</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>0</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="E5" s="2">
         <v>1.2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="H5" s="2">
         <v>1.92</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -2472,7 +2472,7 @@
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
         <v>1.92</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="B6" s="2">
         <v>25.1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>4.0000000000000565E-3</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="E6" s="2">
         <v>3.32</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
         <v>6.0606060606060667E-3</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="H6" s="2">
         <v>1.98</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -2515,7 +2515,7 @@
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
         <v>1.98</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="B7" s="2">
         <v>24.4</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>2.4000000000000056E-2</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="E7" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
         <v>4.4444444444443499E-3</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="H7" s="2">
         <v>1.95</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -2558,7 +2558,7 @@
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
         <v>1.95</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="B8" s="2">
         <v>25</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>0</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="E8" s="2">
         <v>1.2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="H8" s="2">
         <v>1.94</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -2601,7 +2601,7 @@
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
         <v>1.94</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="B9" s="2">
         <v>19.8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>9.9999999999999638E-3</v>
       </c>
@@ -2623,7 +2623,7 @@
       <c r="E9" s="2">
         <v>3.33</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
         <v>9.0909090909091668E-3</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="H9" s="2">
         <v>2</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>0</v>
       </c>
@@ -2644,7 +2644,7 @@
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
         <v>2</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>0</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="B10" s="2">
         <v>20.5</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="E10" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
         <v>2.2222222222222143E-2</v>
       </c>
@@ -2676,7 +2676,7 @@
       <c r="H10" s="2">
         <v>1.98</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -2687,7 +2687,7 @@
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
         <v>1.98</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -2696,10 +2696,12 @@
       <c r="A11" s="2">
         <v>20</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="11">
+      <c r="B11" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C11" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>5.0000000000000712E-3</v>
       </c>
       <c r="D11" s="2">
         <v>1.25</v>
@@ -2707,7 +2709,7 @@
       <c r="E11" s="2">
         <v>1.23</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -2717,7 +2719,7 @@
       <c r="H11" s="2">
         <v>1.98</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -2728,7 +2730,7 @@
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
         <v>1.98</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -2737,239 +2739,275 @@
       <c r="A12" s="2">
         <v>15</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="11">
+      <c r="B12" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="C12" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>6.6666666666666428E-3</v>
       </c>
       <c r="D12" s="2">
         <v>3.3</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="11">
+      <c r="E12" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="F12" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>9.0909090909091668E-3</v>
       </c>
       <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="11">
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
       </c>
       <c r="K12" s="2">
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
+        <v>2</v>
+      </c>
+      <c r="L12" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>15</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="11">
+      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
         <v>2.25</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="11">
+      <c r="E13" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F13" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>4.4444444444443499E-3</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="11">
+      <c r="H13" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="I13" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J13" s="2">
         <v>2</v>
       </c>
       <c r="K13" s="2">
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="L13" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>15</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="11">
+      <c r="B14" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="C14" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>6.6666666666666428E-3</v>
       </c>
       <c r="D14" s="2">
         <v>1.25</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="11">
+      <c r="E14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F14" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="11">
+      <c r="H14" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="I14" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J14" s="2">
         <v>2</v>
       </c>
       <c r="K14" s="2">
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="11">
+        <v>2.1</v>
+      </c>
+      <c r="L14" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="11">
+      <c r="B15" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="C15" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D15" s="2">
         <v>3.3</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="11">
+      <c r="E15" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="F15" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>6.0606060606060667E-3</v>
       </c>
       <c r="G15" s="2">
         <v>2</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="11">
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>2</v>
       </c>
       <c r="K15" s="2">
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
+        <v>2</v>
+      </c>
+      <c r="L15" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="11">
+      <c r="B16" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C16" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>1.9999999999999928E-2</v>
       </c>
       <c r="D16" s="2">
         <v>2.25</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="11">
+      <c r="E16" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F16" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>4.4444444444443499E-3</v>
       </c>
       <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="11">
+      <c r="H16" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I16" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="J16" s="2">
         <v>2</v>
       </c>
       <c r="K16" s="2">
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
+        <v>1.98</v>
+      </c>
+      <c r="L16" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="11">
+      <c r="B17" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C17" s="10">
         <f>ABS((Tabla3[[#This Row],[Exp Frecuencia (Hz)]]-Tabla3[[#This Row],[Frecuencia (Hz) ]])/Tabla3[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>1.9999999999999928E-2</v>
       </c>
       <c r="D17" s="2">
         <v>1.25</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="11">
+      <c r="E17" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="F17" s="10">
         <f>ABS((Tabla3[[#This Row],[Amplitud experimental]]-Tabla3[[#This Row],[Amplitud]])/Tabla3[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>2.4000000000000021E-2</v>
       </c>
       <c r="G17" s="2">
         <v>2</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="11">
+      <c r="H17" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="I17" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>5.0000000000000044E-3</v>
       </c>
       <c r="J17" s="2">
         <v>2</v>
       </c>
       <c r="K17" s="2">
         <f>Tabla3[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
+        <v>1.99</v>
+      </c>
+      <c r="L17" s="10">
         <f>ABS((Tabla3[[#This Row],[Promedio Bajada (ms)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>5.0000000000000044E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -3016,7 +3054,7 @@
       <c r="B23" s="2">
         <v>29.4</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>2.0000000000000049E-2</v>
       </c>
@@ -3026,7 +3064,7 @@
       <c r="E23" s="2">
         <v>3.36</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
         <v>1.8181818181818198E-2</v>
       </c>
@@ -3036,7 +3074,7 @@
       <c r="H23" s="2">
         <v>1.98</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3047,7 +3085,7 @@
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
         <v>1.98</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3059,7 +3097,7 @@
       <c r="B24" s="2">
         <v>31.4</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>4.666666666666662E-2</v>
       </c>
@@ -3069,7 +3107,7 @@
       <c r="E24" s="2">
         <v>2.23</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
         <v>8.8888888888888976E-3</v>
       </c>
@@ -3079,7 +3117,7 @@
       <c r="H24" s="2">
         <v>2.08</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -3090,7 +3128,7 @@
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
         <v>2.08</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -3102,7 +3140,7 @@
       <c r="B25" s="2">
         <v>28.9</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>3.6666666666666715E-2</v>
       </c>
@@ -3112,7 +3150,7 @@
       <c r="E25" s="2">
         <v>1.24</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
         <v>8.0000000000000071E-3</v>
       </c>
@@ -3122,7 +3160,7 @@
       <c r="H25" s="2">
         <v>1.92</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -3133,7 +3171,7 @@
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
         <v>1.92</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -3145,7 +3183,7 @@
       <c r="B26" s="2">
         <v>25.1</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>4.0000000000000565E-3</v>
       </c>
@@ -3155,7 +3193,7 @@
       <c r="E26" s="2">
         <v>3.32</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
         <v>6.0606060606060667E-3</v>
       </c>
@@ -3165,7 +3203,7 @@
       <c r="H26" s="2">
         <v>1.98</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3176,7 +3214,7 @@
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
         <v>1.98</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3188,7 +3226,7 @@
       <c r="B27" s="2">
         <v>25.1</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>4.0000000000000565E-3</v>
       </c>
@@ -3198,7 +3236,7 @@
       <c r="E27" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
         <v>4.4444444444443499E-3</v>
       </c>
@@ -3208,7 +3246,7 @@
       <c r="H27" s="2">
         <v>1.95</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -3219,7 +3257,7 @@
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
         <v>1.95</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -3231,7 +3269,7 @@
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>0</v>
       </c>
@@ -3241,7 +3279,7 @@
       <c r="E28" s="2">
         <v>1.23</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -3251,7 +3289,7 @@
       <c r="H28" s="2">
         <v>1.94</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -3262,7 +3300,7 @@
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
         <v>1.94</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -3274,7 +3312,7 @@
       <c r="B29" s="2">
         <v>19.899999999999999</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>5.0000000000000712E-3</v>
       </c>
@@ -3284,7 +3322,7 @@
       <c r="E29" s="2">
         <v>3.2</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
         <v>3.0303030303030196E-2</v>
       </c>
@@ -3294,7 +3332,7 @@
       <c r="H29" s="2">
         <v>2</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>0</v>
       </c>
@@ -3305,7 +3343,7 @@
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
         <v>2</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>0</v>
       </c>
@@ -3317,7 +3355,7 @@
       <c r="B30" s="2">
         <v>20.3</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>1.5000000000000036E-2</v>
       </c>
@@ -3327,7 +3365,7 @@
       <c r="E30" s="2">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
         <v>1.3333333333333246E-2</v>
       </c>
@@ -3337,7 +3375,7 @@
       <c r="H30" s="2">
         <v>1.98</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3348,7 +3386,7 @@
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
         <v>1.98</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3360,7 +3398,7 @@
       <c r="B31" s="2">
         <v>20.2</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>9.9999999999999638E-3</v>
       </c>
@@ -3370,7 +3408,7 @@
       <c r="E31" s="2">
         <v>1.24</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
         <v>8.0000000000000071E-3</v>
       </c>
@@ -3380,7 +3418,7 @@
       <c r="H31" s="2">
         <v>1.99</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>5.0000000000000044E-3</v>
       </c>
@@ -3391,7 +3429,7 @@
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
         <v>1.99</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>5.0000000000000044E-3</v>
       </c>
@@ -3400,239 +3438,275 @@
       <c r="A32" s="2">
         <v>15</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="11">
+      <c r="B32" s="2">
+        <v>15</v>
+      </c>
+      <c r="C32" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
         <v>3.3</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="11">
+      <c r="E32" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="F32" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>2</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="11">
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="2">
         <v>2</v>
       </c>
       <c r="K32" s="2">
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="10">
+        <v>2</v>
+      </c>
+      <c r="L32" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>15</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="11">
+      <c r="B33" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="C33" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>6.6666666666666428E-3</v>
       </c>
       <c r="D33" s="2">
         <v>2.25</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="11">
+      <c r="E33" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F33" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>2.2222222222222143E-2</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="11">
+      <c r="H33" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="I33" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>2.5000000000000022E-2</v>
       </c>
       <c r="J33" s="2">
         <v>2</v>
       </c>
       <c r="K33" s="2">
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="10">
+        <v>1.95</v>
+      </c>
+      <c r="L33" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>2.5000000000000022E-2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>15</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="11">
+      <c r="B34" s="2">
+        <v>15</v>
+      </c>
+      <c r="C34" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2">
         <v>1.25</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="11">
+      <c r="E34" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="F34" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="G34" s="2">
         <v>2</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="11">
+      <c r="H34" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="I34" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J34" s="2">
         <v>2</v>
       </c>
       <c r="K34" s="2">
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="L34" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>10</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="11">
+      <c r="B35" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C35" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>1.9999999999999928E-2</v>
       </c>
       <c r="D35" s="2">
         <v>3.3</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="11">
+      <c r="E35" s="2">
+        <v>3.28</v>
+      </c>
+      <c r="F35" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>6.0606060606060667E-3</v>
       </c>
       <c r="G35" s="2">
         <v>2</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="11">
+      <c r="H35" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I35" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="J35" s="2">
         <v>2</v>
       </c>
       <c r="K35" s="2">
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="10">
+        <v>1.98</v>
+      </c>
+      <c r="L35" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>10</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="11">
+      <c r="B36" s="2">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2">
         <v>2.25</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="11">
+      <c r="E36" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F36" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>4.4444444444443499E-3</v>
       </c>
       <c r="G36" s="2">
         <v>2</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="11">
+      <c r="H36" s="2">
+        <v>2</v>
+      </c>
+      <c r="I36" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2">
         <v>2</v>
       </c>
       <c r="K36" s="2">
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="10">
+        <v>2</v>
+      </c>
+      <c r="L36" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>10</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="11">
+      <c r="B37" s="2">
+        <v>10</v>
+      </c>
+      <c r="C37" s="10">
         <f>ABS((Tabla311[[#This Row],[Exp Frecuencia (Hz)]]-Tabla311[[#This Row],[Frecuencia (Hz) ]])/Tabla311[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2">
         <v>1.25</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="11">
+      <c r="E37" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="F37" s="10">
         <f>ABS((Tabla311[[#This Row],[Amplitud experimental]]-Tabla311[[#This Row],[Amplitud]])/Tabla311[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2">
         <v>2</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="11">
+      <c r="H37" s="2">
+        <v>2</v>
+      </c>
+      <c r="I37" s="10">
         <f>ABS((Tabla311[[#This Row],[Promedio subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2">
         <v>2</v>
       </c>
       <c r="K37" s="2">
         <f>Tabla311[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="10">
+        <v>2</v>
+      </c>
+      <c r="L37" s="9">
         <f>ABS((Tabla311[[#This Row],[Promedio Bajada (ms)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
@@ -3679,7 +3753,7 @@
       <c r="B42" s="2">
         <v>29.6</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>1.3333333333333286E-2</v>
       </c>
@@ -3689,7 +3763,7 @@
       <c r="E42" s="2">
         <v>3.28</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
         <v>6.0606060606060667E-3</v>
       </c>
@@ -3699,7 +3773,7 @@
       <c r="H42" s="2">
         <v>1.98</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3710,7 +3784,7 @@
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
         <v>1.98</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L42" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3722,7 +3796,7 @@
       <c r="B43" s="2">
         <v>29.4</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>2.0000000000000049E-2</v>
       </c>
@@ -3732,7 +3806,7 @@
       <c r="E43" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
         <v>4.4444444444443499E-3</v>
       </c>
@@ -3742,7 +3816,7 @@
       <c r="H43" s="2">
         <v>2.08</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -3753,7 +3827,7 @@
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
         <v>2.08</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L43" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -3765,7 +3839,7 @@
       <c r="B44" s="2">
         <v>28.8</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>3.9999999999999973E-2</v>
       </c>
@@ -3775,7 +3849,7 @@
       <c r="E44" s="2">
         <v>1.2</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -3785,7 +3859,7 @@
       <c r="H44" s="2">
         <v>1.92</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -3796,7 +3870,7 @@
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
         <v>1.92</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L44" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -3808,7 +3882,7 @@
       <c r="B45" s="2">
         <v>25.2</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>7.9999999999999724E-3</v>
       </c>
@@ -3818,7 +3892,7 @@
       <c r="E45" s="2">
         <v>3.33</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
         <v>9.0909090909091668E-3</v>
       </c>
@@ -3828,7 +3902,7 @@
       <c r="H45" s="2">
         <v>1.98</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3839,7 +3913,7 @@
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
         <v>1.98</v>
       </c>
-      <c r="L45" s="10">
+      <c r="L45" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3851,7 +3925,7 @@
       <c r="B46" s="2">
         <v>24.8</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>7.9999999999999724E-3</v>
       </c>
@@ -3861,7 +3935,7 @@
       <c r="E46" s="2">
         <v>2.23</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
         <v>8.8888888888888976E-3</v>
       </c>
@@ -3871,7 +3945,7 @@
       <c r="H46" s="2">
         <v>1.95</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -3882,7 +3956,7 @@
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
         <v>1.95</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L46" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -3894,7 +3968,7 @@
       <c r="B47" s="2">
         <v>25</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>0</v>
       </c>
@@ -3904,7 +3978,7 @@
       <c r="E47" s="2">
         <v>1.23</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -3914,7 +3988,7 @@
       <c r="H47" s="2">
         <v>1.94</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -3925,7 +3999,7 @@
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
         <v>1.94</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L47" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -3937,7 +4011,7 @@
       <c r="B48" s="2">
         <v>20.100000000000001</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>5.0000000000000712E-3</v>
       </c>
@@ -3947,7 +4021,7 @@
       <c r="E48" s="2">
         <v>3.33</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
         <v>9.0909090909091668E-3</v>
       </c>
@@ -3957,7 +4031,7 @@
       <c r="H48" s="2">
         <v>1.98</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3968,7 +4042,7 @@
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
         <v>1.98</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L48" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -3980,7 +4054,7 @@
       <c r="B49" s="2">
         <v>20.2</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>9.9999999999999638E-3</v>
       </c>
@@ -3990,7 +4064,7 @@
       <c r="E49" s="2">
         <v>2.2400000000000002</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
         <v>4.4444444444443499E-3</v>
       </c>
@@ -4000,7 +4074,7 @@
       <c r="H49" s="2">
         <v>2</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
         <v>0</v>
       </c>
@@ -4011,7 +4085,7 @@
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
         <v>2</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
         <v>0</v>
       </c>
@@ -4023,7 +4097,7 @@
       <c r="B50" s="2">
         <v>20.2</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
         <v>9.9999999999999638E-3</v>
       </c>
@@ -4033,250 +4107,288 @@
       <c r="E50" s="2">
         <v>1.25</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
         <v>0</v>
       </c>
       <c r="G50" s="2">
         <v>2</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="11">
+      <c r="H50" s="2">
+        <v>2</v>
+      </c>
+      <c r="I50" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="2">
         <v>2</v>
       </c>
       <c r="K50" s="2">
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="10">
+        <v>2</v>
+      </c>
+      <c r="L50" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>15</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="11">
+      <c r="B51" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="C51" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>6.6666666666666428E-3</v>
       </c>
       <c r="D51" s="2">
         <v>3.3</v>
       </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="11">
+      <c r="E51" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="F51" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>9.0909090909091668E-3</v>
       </c>
       <c r="G51" s="2">
         <v>2</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="11">
+      <c r="H51" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="I51" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J51" s="2">
         <v>2</v>
       </c>
       <c r="K51" s="2">
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="L51" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>15</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="11">
+      <c r="B52" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="C52" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>6.6666666666666428E-3</v>
       </c>
       <c r="D52" s="2">
         <v>2.25</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="11">
+      <c r="E52" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F52" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>4.4444444444443499E-3</v>
       </c>
       <c r="G52" s="2">
         <v>2</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="11">
+      <c r="H52" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="I52" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="J52" s="2">
         <v>2</v>
       </c>
       <c r="K52" s="2">
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="10">
+        <v>1.96</v>
+      </c>
+      <c r="L52" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>15</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="11">
+      <c r="B53" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="C53" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>6.6666666666666428E-3</v>
       </c>
       <c r="D53" s="2">
         <v>1.25</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="11">
+      <c r="E53" s="2">
+        <v>1.24</v>
+      </c>
+      <c r="F53" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>8.0000000000000071E-3</v>
       </c>
       <c r="G53" s="2">
         <v>2</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="11">
+      <c r="H53" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I53" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="J53" s="2">
         <v>2</v>
       </c>
       <c r="K53" s="2">
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="10">
+        <v>1.98</v>
+      </c>
+      <c r="L53" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>10</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="11">
+      <c r="B54" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="C54" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>9.9999999999999638E-3</v>
       </c>
       <c r="D54" s="2">
         <v>3.3</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="11">
+      <c r="E54" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="F54" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>3.0303030303029657E-3</v>
       </c>
       <c r="G54" s="2">
         <v>2</v>
       </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="11">
+      <c r="H54" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I54" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>2.4999999999999911E-2</v>
       </c>
       <c r="J54" s="2">
         <v>2</v>
       </c>
       <c r="K54" s="2">
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L54" s="10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L54" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>2.4999999999999911E-2</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>10</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="11">
+      <c r="B55" s="2">
+        <v>10</v>
+      </c>
+      <c r="C55" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2">
         <v>2.25</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="11">
+      <c r="E55" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F55" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>4.4444444444443499E-3</v>
       </c>
       <c r="G55" s="2">
         <v>2</v>
       </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="11">
+      <c r="H55" s="2">
+        <v>2</v>
+      </c>
+      <c r="I55" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="2">
         <v>2</v>
       </c>
       <c r="K55" s="2">
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="10">
+        <v>2</v>
+      </c>
+      <c r="L55" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>10</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="11">
+      <c r="B56" s="2">
+        <v>10</v>
+      </c>
+      <c r="C56" s="10">
         <f>ABS((Tabla312[[#This Row],[Exp Frecuencia (Hz)]]-Tabla312[[#This Row],[Frecuencia (Hz) ]])/Tabla312[[#This Row],[Frecuencia (Hz) ]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2">
         <v>1.25</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="11">
+      <c r="E56" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="F56" s="10">
         <f>ABS((Tabla312[[#This Row],[Amplitud experimental]]-Tabla312[[#This Row],[Amplitud]])/Tabla312[[#This Row],[Amplitud]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="2">
         <v>2</v>
       </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="11">
+      <c r="H56" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="I56" s="10">
         <f>ABS((Tabla312[[#This Row],[Promedio subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teorico (s)]])</f>
-        <v>1</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="J56" s="2">
         <v>2</v>
       </c>
       <c r="K56" s="2">
         <f>Tabla312[[#This Row],[Promedio subida (s)]]</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="10">
+        <v>1.98</v>
+      </c>
+      <c r="L56" s="9">
         <f>ABS((Tabla312[[#This Row],[Promedio Bajada (ms)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada (s)]])</f>
-        <v>1</v>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Estimulador/Caracterizacion/Tablas_Resultados.xlsx
+++ b/Estimulador/Caracterizacion/Tablas_Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Universidad UVG\Sexto Año\Segundo Ciclo\Tesis\Tesis-2022-Erick-Aquino\Estimulador\Caracterizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2492741-3BFD-4136-B49F-7EADA9C60950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0594372-5359-4263-9BA1-D96231D7B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{EFFD592A-B6F9-484D-AA51-F79BFFF83EBA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EFFD592A-B6F9-484D-AA51-F79BFFF83EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="PWM" sheetId="1" r:id="rId1"/>
@@ -18,28 +18,6 @@
     <sheet name="Rampas" sheetId="3" r:id="rId3"/>
     <sheet name="Voltage-Current" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">PWM!$D$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">PWM!$D$2:$D$23</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">PWM!$E$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">PWM!$E$2:$E$23</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">PWM!$D$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">PWM!$D$2:$D$23</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">PWM!$E$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">PWM!$E$2:$E$23</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">PWM!$D$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">PWM!$D$2:$D$23</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">PWM!$E$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">PWM!$E$2:$E$23</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">PWM!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">PWM!$E$2:$E$23</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">PWM!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">PWM!$D$2:$D$23</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">PWM!$E$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">PWM!$E$2:$E$23</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">PWM!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">PWM!$D$2:$D$23</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
   <si>
     <t>Error (%)</t>
   </si>
@@ -146,6 +124,48 @@
   <si>
     <t>Amplitud teórica (V)</t>
   </si>
+  <si>
+    <t>Amplitud (V)</t>
+  </si>
+  <si>
+    <t>Amplitud Experimental</t>
+  </si>
+  <si>
+    <t>Frecuencia 30 HZ , ciclo de trabajo 55 %</t>
+  </si>
+  <si>
+    <t>Frecuencia 20 HZ, ciclo de trabajo 55 %</t>
+  </si>
+  <si>
+    <t>Frecuencia 10 HZ, ciclo de trabajo 55 %</t>
+  </si>
+  <si>
+    <t>Frecuencia 30 HZ , ciclo de trabajo 50 %</t>
+  </si>
+  <si>
+    <t>Frecuencia 20 HZ, ciclo de trabajo 50 %</t>
+  </si>
+  <si>
+    <t>Frecuencia 10 HZ, ciclo de trabajo 50 %</t>
+  </si>
+  <si>
+    <t>Frecuencia 30 HZ , ciclo de trabajo 20 %</t>
+  </si>
+  <si>
+    <t>Frecuencia 20 HZ, ciclo de trabajo 20 %</t>
+  </si>
+  <si>
+    <t>Frecuencia 10 HZ, ciclo de trabajo 20 %</t>
+  </si>
+  <si>
+    <t>Corriente experimental (mA) a 30Hz</t>
+  </si>
+  <si>
+    <t>Corriente experimental (mA) a 20Hz</t>
+  </si>
+  <si>
+    <t>Corriente experimental (mA) a 10Hz</t>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,14 +264,112 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="79">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -300,47 +418,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5671,6 +5749,2527 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1017530352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Corriente de estimulación</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> experimental a frecuencias de 30Hz, 20Hz, 10Hz y a un ciclo de trabajo de 55%</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage-Current'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corriente experimental (mA) a 30Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$C$3:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F913-4DE3-939B-27E6C091C7A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage-Current'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corriente experimental (mA) a 20Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$H$3:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F913-4DE3-939B-27E6C091C7A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage-Current'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corriente experimental (mA) a 10Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$M$3:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F913-4DE3-939B-27E6C091C7A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2142295199"/>
+        <c:axId val="2142295615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2142295199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltaje</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (v)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142295615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2142295615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Corriente (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900"/>
+                  <a:t>ma)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142295199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Corriente de estimulación</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> experimental a frecuencias de 30Hz, 20Hz, 10Hz y a un ciclo de trabajo de 50%</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage-Current'!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corriente experimental (mA) a 30Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$A$21:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$C$21:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3308-42A2-8F73-2D8159EDF688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage-Current'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corriente experimental (mA) a 20Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$A$21:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$H$21:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3308-42A2-8F73-2D8159EDF688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage-Current'!$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corriente experimental (mA) a 10Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$A$21:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$M$21:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3308-42A2-8F73-2D8159EDF688}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2142295199"/>
+        <c:axId val="2142295615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2142295199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltaje</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (v)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142295615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2142295615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Corriente (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900"/>
+                  <a:t>ma)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142295199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Corriente de estimulación</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> experimental a frecuencias de 30Hz, 20Hz, 10Hz y a un ciclo de trabajo de 20%</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage-Current'!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corriente experimental (mA) a 30Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$K$39:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$C$39:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-591B-4362-8E02-25E5E32D1EB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage-Current'!$H$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corriente experimental (mA) a 20Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$K$39:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$H$39:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-591B-4362-8E02-25E5E32D1EB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Voltage-Current'!$M$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corriente experimental (mA) a 10Hz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$K$39:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Voltage-Current'!$M$39:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-591B-4362-8E02-25E5E32D1EB7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2142295199"/>
+        <c:axId val="2142295615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2142295199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltaje</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (v)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142295615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2142295615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Corriente (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900"/>
+                  <a:t>ma)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2142295199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12939,6 +15538,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16233,6 +18952,1494 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21401,51 +25608,263 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>387927</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324678</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>145773</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13162E8-4A84-9C9A-3104-3898C9AA0DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>477079</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07892C97-547C-49CB-8DB0-3ACBCA879C54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>331305</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14F24F4-558C-4F5F-8C17-E59D3D838E98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DB0725B-06C7-40AB-8951-220298407BB2}" name="Tabla1" displayName="Tabla1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DB0725B-06C7-40AB-8951-220298407BB2}" name="Tabla1" displayName="Tabla1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="A1:J23" xr:uid="{4DB0725B-06C7-40AB-8951-220298407BB2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
     <sortCondition ref="A1:A23"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D8BE834C-C6A0-4D47-BBA1-05DAD44C12B6}" name="Frequencia PWM Teorica (Hz)" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{E3D22371-E809-4283-A1E6-06CCF407C76F}" name="Pomedio PWM (Hz)" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{27EE4F05-B556-4BCF-B7F8-6EDA21BE7791}" name="Error (%)" dataDxfId="56" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{D8BE834C-C6A0-4D47-BBA1-05DAD44C12B6}" name="Frequencia PWM Teorica (Hz)" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{E3D22371-E809-4283-A1E6-06CCF407C76F}" name="Pomedio PWM (Hz)" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{27EE4F05-B556-4BCF-B7F8-6EDA21BE7791}" name="Error (%)" dataDxfId="74" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla1[[#This Row],[Pomedio PWM (Hz)]]-Tabla1[[#This Row],[Frequencia PWM Teorica (Hz)]])/Tabla1[[#This Row],[Frequencia PWM Teorica (Hz)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C87F5F2D-3C48-4667-A3F8-31665B839217}" name="Ciclo de trabajo teorico" dataDxfId="55" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{D2FC5D2D-9F0F-40CD-92B9-A87E4EF0119F}" name="Promedio ciclo de trabajo (%)" dataDxfId="54" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{5ED67E0A-997F-46E6-BF33-45D8CF858762}" name="Error ciclo de trabajo (%)" dataDxfId="53" dataCellStyle="Porcentaje">
+    <tableColumn id="8" xr3:uid="{C87F5F2D-3C48-4667-A3F8-31665B839217}" name="Ciclo de trabajo teorico" dataDxfId="73" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{D2FC5D2D-9F0F-40CD-92B9-A87E4EF0119F}" name="Promedio ciclo de trabajo (%)" dataDxfId="72" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{5ED67E0A-997F-46E6-BF33-45D8CF858762}" name="Error ciclo de trabajo (%)" dataDxfId="71" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla1[[#This Row],[Promedio ciclo de trabajo (%)]]-Tabla1[[#This Row],[Ciclo de trabajo teorico]])/Tabla1[[#This Row],[Ciclo de trabajo teorico]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E6A42BD8-6B1E-494C-92D0-8809E4C6E417}" name="Ancho de pulso teorico (ms)" dataDxfId="52">
+    <tableColumn id="4" xr3:uid="{E6A42BD8-6B1E-494C-92D0-8809E4C6E417}" name="Ancho de pulso teorico (ms)" dataDxfId="70">
       <calculatedColumnFormula>(1/Tabla1[[#This Row],[Frequencia PWM Teorica (Hz)]])*Tabla1[[#This Row],[Ciclo de trabajo teorico]]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{18FA8CF7-1748-4290-934F-195BB10A3E9D}" name="Promedio Ancho de pulso (ms)" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{8C38799C-6282-4F30-8155-2F925A8104B1}" name="Error ancho de pulso (%)" dataDxfId="50" dataCellStyle="Porcentaje">
+    <tableColumn id="6" xr3:uid="{18FA8CF7-1748-4290-934F-195BB10A3E9D}" name="Promedio Ancho de pulso (ms)" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{8C38799C-6282-4F30-8155-2F925A8104B1}" name="Error ancho de pulso (%)" dataDxfId="68" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla1[[#This Row],[Promedio Ancho de pulso (ms)]]-Tabla1[[#This Row],[Ancho de pulso teorico (ms)]])/Tabla1[[#This Row],[Ancho de pulso teorico (ms)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1B8DFAA5-0DC3-4A17-85A3-B56B9D035E8D}" name="voltaje (v)" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{1B8DFAA5-0DC3-4A17-85A3-B56B9D035E8D}" name="voltaje (v)" dataDxfId="67"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{EEE0C2A2-CA42-4475-824D-BC4E29980EFF}" name="Tabla5920" displayName="Tabla5920" ref="F20:I34" totalsRowShown="0">
+  <autoFilter ref="F20:I34" xr:uid="{EEE0C2A2-CA42-4475-824D-BC4E29980EFF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5ABF9541-0684-4B12-876F-C11ABB1D0BAE}" name="Amplitud (V)">
+      <calculatedColumnFormula>F20-0.25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{647A2252-27DB-4B7E-BAD9-AC7BE668E149}" name="Amplitud Experimental"/>
+    <tableColumn id="3" xr3:uid="{BD053EE5-57D7-458A-BCB4-B4BBE64DE4E0}" name="Corriente experimental (mA) a 20Hz" dataDxfId="9">
+      <calculatedColumnFormula>Tabla5920[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D465D2CF-CB0D-4F8B-8B38-F782CAEA766C}" name="Error (%)" dataDxfId="8">
+      <calculatedColumnFormula>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5D0FC840-8839-4A67-A422-4DA44126351F}" name="Tabla51021" displayName="Tabla51021" ref="K20:N34" totalsRowShown="0">
+  <autoFilter ref="K20:N34" xr:uid="{5D0FC840-8839-4A67-A422-4DA44126351F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B9051FC2-C9EC-4F1D-AF25-3DD4263C628A}" name="Amplitud (V)">
+      <calculatedColumnFormula>K20-0.25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{ED27F1B4-89E2-437B-A677-16F3157ED352}" name="Amplitud Experimental"/>
+    <tableColumn id="3" xr3:uid="{4496C6BA-A830-4CF9-948B-F7B9ED94F700}" name="Corriente experimental (mA) a 10Hz" dataDxfId="7">
+      <calculatedColumnFormula>Tabla51021[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6FE5A946-D7C4-45E7-8497-C3C0CC6F09C1}" name="Error (%)" dataDxfId="6">
+      <calculatedColumnFormula>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{C10B4E03-9F55-4B1E-B0D8-5CF8ECDCEE04}" name="Tabla522" displayName="Tabla522" ref="A38:D52" totalsRowShown="0">
+  <autoFilter ref="A38:D52" xr:uid="{C10B4E03-9F55-4B1E-B0D8-5CF8ECDCEE04}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2D1E8B25-60C6-4E0C-A97A-55289AEA4DE6}" name="Amplitud (V)">
+      <calculatedColumnFormula>A38-0.25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{ADA40132-4642-4890-B28E-FCB760ED7A68}" name="Amplitud Experimental"/>
+    <tableColumn id="3" xr3:uid="{79943565-18BC-4704-AB80-BA26F8A6DCA7}" name="Corriente experimental (mA) a 30Hz" dataDxfId="5">
+      <calculatedColumnFormula>Tabla522[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{11B4289A-A449-4422-8DFD-1D47B2425677}" name="Error (%)" dataDxfId="4">
+      <calculatedColumnFormula>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{D896430D-909F-42DE-AD2E-60222EEBF9C6}" name="Tabla5923" displayName="Tabla5923" ref="F38:I52" totalsRowShown="0">
+  <autoFilter ref="F38:I52" xr:uid="{D896430D-909F-42DE-AD2E-60222EEBF9C6}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7FB8EFBA-DDAC-4206-8A2F-1126D9B2E213}" name="Amplitud (V)">
+      <calculatedColumnFormula>F38-0.25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{0ED2D2DA-227C-4982-881D-3E4288781B2E}" name="Amplitud Experimental"/>
+    <tableColumn id="3" xr3:uid="{9798B942-CEB9-4945-82FD-DBE231C53CE3}" name="Corriente experimental (mA) a 20Hz" dataDxfId="3">
+      <calculatedColumnFormula>Tabla5923[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{83AE26B0-DD36-4094-884B-F225013EF1EC}" name="Error (%)" dataDxfId="2">
+      <calculatedColumnFormula>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{8DC4683D-089A-4254-AD93-B507A3364333}" name="Tabla51024" displayName="Tabla51024" ref="K38:N52" totalsRowShown="0">
+  <autoFilter ref="K38:N52" xr:uid="{8DC4683D-089A-4254-AD93-B507A3364333}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0561B2BA-B024-4155-A7DE-574CB649B95F}" name="Amplitud (V)">
+      <calculatedColumnFormula>K38-0.25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{2CD90928-CB75-48EC-9302-E35ED29925C8}" name="Amplitud Experimental"/>
+    <tableColumn id="3" xr3:uid="{347EA2DC-4908-42C1-91D1-651E27451F60}" name="Corriente experimental (mA) a 10Hz" dataDxfId="1">
+      <calculatedColumnFormula>Tabla51024[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BE14CB09-49D2-4099-AAB5-1AC95E059925}" name="Error (%)" dataDxfId="0">
+      <calculatedColumnFormula>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{541620B9-3328-4E80-87D7-6993CCFCC757}" name="Tabla2" displayName="Tabla2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{541620B9-3328-4E80-87D7-6993CCFCC757}" name="Tabla2" displayName="Tabla2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:E16" xr:uid="{541620B9-3328-4E80-87D7-6993CCFCC757}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C17AFB38-CE22-46D7-8F22-0682A82000DC}" name="Amplitud  teórica (V)" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{C17AFB38-CE22-46D7-8F22-0682A82000DC}" name="Amplitud  teórica (V)" dataDxfId="64">
       <calculatedColumnFormula>A1-0.25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CAC73A74-053C-4BEA-BFA3-0EF61C871549}" name="Amplitud experimental (V)" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{58572678-C524-4439-815F-B36F210BCB44}" name="Error (%)" dataDxfId="44">
+    <tableColumn id="2" xr3:uid="{CAC73A74-053C-4BEA-BFA3-0EF61C871549}" name="Amplitud experimental (V)" dataDxfId="63"/>
+    <tableColumn id="3" xr3:uid="{58572678-C524-4439-815F-B36F210BCB44}" name="Error (%)" dataDxfId="62">
       <calculatedColumnFormula>ABS((Tabla2[[#This Row],[Amplitud experimental (V)]]-Tabla2[[#This Row],[Amplitud  teórica (V)]])/Tabla2[[#This Row],[Amplitud  teórica (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C3BEE760-7C9E-4D95-A987-D6B7F4281D8C}" name="Potenciometro (%)" dataDxfId="43" dataCellStyle="Porcentaje">
+    <tableColumn id="4" xr3:uid="{C3BEE760-7C9E-4D95-A987-D6B7F4281D8C}" name="Potenciometro (%)" dataDxfId="61" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>(Tabla2[[#This Row],[Value sent (0 - 255)]]*100/255)*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6E5851DF-90B5-4596-B293-DB5BB1C46723}" name="Value sent (0 - 255)" dataDxfId="42">
+    <tableColumn id="5" xr3:uid="{6E5851DF-90B5-4596-B293-DB5BB1C46723}" name="Value sent (0 - 255)" dataDxfId="60">
       <calculatedColumnFormula>Tabla2[[#This Row],[Amplitud  teórica (V)]]*255/3.3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21454,29 +25873,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BBDF8BE-AC6E-4031-9579-29D05467F7BF}" name="Tabla3" displayName="Tabla3" ref="A2:L17" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BBDF8BE-AC6E-4031-9579-29D05467F7BF}" name="Tabla3" displayName="Tabla3" ref="A2:L17" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A2:L17" xr:uid="{5BBDF8BE-AC6E-4031-9579-29D05467F7BF}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{9F71D84F-9878-4D36-8936-9D003F31027F}" name="Frecuencia teórica (Hz) " dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{5282C3EA-F82F-4E75-BDCF-1084006587B3}" name="Frecuencia experimental (Hz)" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{ED172ABE-988C-4750-854D-F9F0691C9376}" name="Error Frecuencia (%)" dataDxfId="37" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{9F71D84F-9878-4D36-8936-9D003F31027F}" name="Frecuencia teórica (Hz) " dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{5282C3EA-F82F-4E75-BDCF-1084006587B3}" name="Frecuencia experimental (Hz)" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{ED172ABE-988C-4750-854D-F9F0691C9376}" name="Error Frecuencia (%)" dataDxfId="55" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Frecuencia experimental (Hz)]]-Tabla3[[#This Row],[Frecuencia teórica (Hz) ]])/Tabla3[[#This Row],[Frecuencia teórica (Hz) ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{88E66329-9A9A-4F1D-81CC-884B1C7872B9}" name="Amplitud teórica (V)" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{09F1E6EF-B67B-451B-9DE2-1EE82D3585CB}" name="Amplitud experimental (V)" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{C80D96D2-FC0F-48F2-9D46-C0DFF83B2CD7}" name="Error Amplitud (%)" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{88E66329-9A9A-4F1D-81CC-884B1C7872B9}" name="Amplitud teórica (V)" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{09F1E6EF-B67B-451B-9DE2-1EE82D3585CB}" name="Amplitud experimental (V)" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{C80D96D2-FC0F-48F2-9D46-C0DFF83B2CD7}" name="Error Amplitud (%)" dataDxfId="52">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Amplitud experimental (V)]]-Tabla3[[#This Row],[Amplitud teórica (V)]])/Tabla3[[#This Row],[Amplitud teórica (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D4F0D9EB-B70D-4932-A0EB-05BFE46B43ED}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{2EBD1AB8-5FE1-4887-AE3B-19D56A70A9EF}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{CCAC1463-901C-4C7D-A762-180D99650D11}" name="error tiempo de subida (%)" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{D4F0D9EB-B70D-4932-A0EB-05BFE46B43ED}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{2EBD1AB8-5FE1-4887-AE3B-19D56A70A9EF}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{CCAC1463-901C-4C7D-A762-180D99650D11}" name="error tiempo de subida (%)" dataDxfId="49">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teórico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teórico (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C74FAF-B5D2-44CA-BF59-EB5E6D7B1A9C}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{1891CEE3-E6E8-47C1-98E4-60A57F883566}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="29">
+    <tableColumn id="8" xr3:uid="{30C74FAF-B5D2-44CA-BF59-EB5E6D7B1A9C}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{1891CEE3-E6E8-47C1-98E4-60A57F883566}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="47">
       <calculatedColumnFormula>Tabla3[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{16438C67-DAE6-4F33-8725-B2B824DE7049}" name="error bajada (%)" dataDxfId="28">
+    <tableColumn id="10" xr3:uid="{16438C67-DAE6-4F33-8725-B2B824DE7049}" name="error bajada (%)" dataDxfId="46">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Tiempo Experimental de Rampa de bajada (s)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21485,29 +25904,29 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{04551ECA-EF0C-4696-9301-5248DE3C38A9}" name="Tabla311" displayName="Tabla311" ref="A22:L37" totalsRowShown="0" headerRowDxfId="1" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{04551ECA-EF0C-4696-9301-5248DE3C38A9}" name="Tabla311" displayName="Tabla311" ref="A22:L37" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A22:L37" xr:uid="{04551ECA-EF0C-4696-9301-5248DE3C38A9}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{954A970E-0EE2-41A4-96CD-DF54CD9B89BD}" name="Frecuencia teórica (Hz) " dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{4F819BC9-EAF4-4102-98E5-2D695C220C79}" name="Frecuencia experimental (Hz)" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{3EA23BCF-637E-4183-951D-AE5A4E1B4996}" name="Error Frecuencia (%)" dataDxfId="24" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{954A970E-0EE2-41A4-96CD-DF54CD9B89BD}" name="Frecuencia teórica (Hz) " dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{4F819BC9-EAF4-4102-98E5-2D695C220C79}" name="Frecuencia experimental (Hz)" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{3EA23BCF-637E-4183-951D-AE5A4E1B4996}" name="Error Frecuencia (%)" dataDxfId="41" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Frecuencia experimental (Hz)]]-Tabla311[[#This Row],[Frecuencia teórica (Hz) ]])/Tabla311[[#This Row],[Frecuencia teórica (Hz) ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57FDEE6C-38A0-4878-90E5-D462DC893965}" name="Amplitud teórica (V)" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{A1EA1D9B-8E35-45C2-BC97-1F7531639C8E}" name="Amplitud experimental (V)" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{5C5B86F0-2C62-4EC7-90DB-16CD3F02F215}" name="Error Amplitud (%)" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{57FDEE6C-38A0-4878-90E5-D462DC893965}" name="Amplitud teórica (V)" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{A1EA1D9B-8E35-45C2-BC97-1F7531639C8E}" name="Amplitud experimental (V)" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{5C5B86F0-2C62-4EC7-90DB-16CD3F02F215}" name="Error Amplitud (%)" dataDxfId="38">
       <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Amplitud experimental (V)]]-Tabla311[[#This Row],[Amplitud teórica (V)]])/Tabla311[[#This Row],[Amplitud teórica (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A196DC78-24A3-49DB-8F89-7372B726AF8D}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{61205670-DD09-4734-9B60-2A19181A3B09}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{CB6D4961-C564-4255-A528-66DC8939E53F}" name="error tiempo de subida (%)" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{A196DC78-24A3-49DB-8F89-7372B726AF8D}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{61205670-DD09-4734-9B60-2A19181A3B09}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{CB6D4961-C564-4255-A528-66DC8939E53F}" name="error tiempo de subida (%)" dataDxfId="35">
       <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teórico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teórico (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{82C89E9A-C54F-45D9-BA16-F7CA53FDAD9C}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{AADECCD1-0E47-4899-B4DB-3980D5EB4FA0}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{82C89E9A-C54F-45D9-BA16-F7CA53FDAD9C}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{AADECCD1-0E47-4899-B4DB-3980D5EB4FA0}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="33">
       <calculatedColumnFormula>Tabla311[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B9442908-7763-415B-A1D9-3FDB69AA335D}" name="error bajada (%)" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{B9442908-7763-415B-A1D9-3FDB69AA335D}" name="error bajada (%)" dataDxfId="32">
       <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Tiempo Experimental de Rampa de bajada (s)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21516,30 +25935,106 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FD84326B-B51B-43E3-A954-A199DB93B556}" name="Tabla312" displayName="Tabla312" ref="A41:L56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FD84326B-B51B-43E3-A954-A199DB93B556}" name="Tabla312" displayName="Tabla312" ref="A41:L56" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A41:L56" xr:uid="{FD84326B-B51B-43E3-A954-A199DB93B556}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{9EA3655E-189F-41AE-BB30-A54F6B6FBD31}" name="Frecuencia teórica (Hz) " dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{43A90E76-0F57-46ED-9A57-AA589374EFAC}" name="Frecuencia experimental (Hz)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{402459F6-1584-430A-83A0-BCD4F9F04646}" name="Error Frecuencia (%)" dataDxfId="11" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{9EA3655E-189F-41AE-BB30-A54F6B6FBD31}" name="Frecuencia teórica (Hz) " dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{43A90E76-0F57-46ED-9A57-AA589374EFAC}" name="Frecuencia experimental (Hz)" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{402459F6-1584-430A-83A0-BCD4F9F04646}" name="Error Frecuencia (%)" dataDxfId="27" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Frecuencia experimental (Hz)]]-Tabla312[[#This Row],[Frecuencia teórica (Hz) ]])/Tabla312[[#This Row],[Frecuencia teórica (Hz) ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57E12FE0-ED8A-4975-B183-AD60486386D0}" name="Amplitud teórica (V)" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{8BB747FA-A49A-40D7-8EB0-CE09BDEFD4C6}" name="Amplitud experimental (V)" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{5AD41EFA-DE50-4D69-927C-30DDC6471368}" name="Error Amplitud (%)" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{57E12FE0-ED8A-4975-B183-AD60486386D0}" name="Amplitud teórica (V)" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{8BB747FA-A49A-40D7-8EB0-CE09BDEFD4C6}" name="Amplitud experimental (V)" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{5AD41EFA-DE50-4D69-927C-30DDC6471368}" name="Error Amplitud (%)" dataDxfId="24">
       <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Amplitud experimental (V)]]-Tabla312[[#This Row],[Amplitud teórica (V)]])/Tabla312[[#This Row],[Amplitud teórica (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8F77CD90-8B24-4F57-B9D9-D92BD38EEF90}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{369A3313-8A54-4DE9-ABDF-57550D7CA766}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{623ED2C3-F247-4060-B588-027666E64CEF}" name="error tiempo de subida (%)" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{8F77CD90-8B24-4F57-B9D9-D92BD38EEF90}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{369A3313-8A54-4DE9-ABDF-57550D7CA766}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{623ED2C3-F247-4060-B588-027666E64CEF}" name="error tiempo de subida (%)" dataDxfId="21">
       <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teórico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teórico (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E3C34122-9074-4143-952B-814317832A8D}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{60537B1A-AA51-4135-9C45-7A7737C1206F}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{E3C34122-9074-4143-952B-814317832A8D}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{60537B1A-AA51-4135-9C45-7A7737C1206F}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="19">
       <calculatedColumnFormula>Tabla312[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AC06E1BE-4CD9-4E21-87BD-693B0C461F93}" name="error bajada (%)" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{AC06E1BE-4CD9-4E21-87BD-693B0C461F93}" name="error bajada (%)" dataDxfId="18">
       <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Tiempo Experimental de Rampa de bajada (s)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BFC4D5CF-0DA4-4292-B4CC-F194FE85F401}" name="Tabla5" displayName="Tabla5" ref="A2:D16" totalsRowShown="0">
+  <autoFilter ref="A2:D16" xr:uid="{BFC4D5CF-0DA4-4292-B4CC-F194FE85F401}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E14F42C8-F607-4205-BFF6-45237EE183F1}" name="Amplitud (V)">
+      <calculatedColumnFormula>A2-0.25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{49D13144-65CF-4487-8945-80595D1BA005}" name="Amplitud Experimental"/>
+    <tableColumn id="3" xr3:uid="{A0130B50-85CF-4CCC-8EE3-A1C864608501}" name="Corriente experimental (mA) a 30Hz" dataDxfId="14">
+      <calculatedColumnFormula>Tabla5[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{21D4FE8D-0201-4AB3-8FD4-43280EA755BD}" name="Error (%)" dataDxfId="17">
+      <calculatedColumnFormula>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{78B3A1EA-B727-4921-BEB0-8D065A13F91F}" name="Tabla59" displayName="Tabla59" ref="F2:I16" totalsRowShown="0">
+  <autoFilter ref="F2:I16" xr:uid="{78B3A1EA-B727-4921-BEB0-8D065A13F91F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{62AE73ED-6EE6-4816-A97F-6C0FBCFB5561}" name="Amplitud (V)">
+      <calculatedColumnFormula>F2-0.25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{457B3A8B-A885-48AB-B98E-5C02BB656D53}" name="Amplitud Experimental"/>
+    <tableColumn id="3" xr3:uid="{E1B2A27D-0272-40DA-A4BF-C79E307D9164}" name="Corriente experimental (mA) a 20Hz" dataDxfId="13">
+      <calculatedColumnFormula>Tabla59[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{47588B50-F8BD-4B30-9D7E-81347F05E2DE}" name="Error (%)" dataDxfId="16">
+      <calculatedColumnFormula>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{3DA1318F-F1D6-4205-9B12-47F6D49EB3EF}" name="Tabla510" displayName="Tabla510" ref="K2:N16" totalsRowShown="0">
+  <autoFilter ref="K2:N16" xr:uid="{3DA1318F-F1D6-4205-9B12-47F6D49EB3EF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{392186D2-FA77-44E2-9D79-2476D2CA1E2F}" name="Amplitud (V)">
+      <calculatedColumnFormula>K2-0.25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{D8ACF535-D0C1-46E2-A6E4-8E3909AA46F4}" name="Amplitud Experimental"/>
+    <tableColumn id="3" xr3:uid="{0BAEFC13-7D82-4E71-9D41-4344A6090939}" name="Corriente experimental (mA) a 10Hz" dataDxfId="12">
+      <calculatedColumnFormula>Tabla510[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DECD44A5-2474-4759-B8DD-BEAD84262CC3}" name="Error (%)" dataDxfId="15">
+      <calculatedColumnFormula>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{41A2204F-9041-4D27-8CAE-FC7B5AD60412}" name="Tabla519" displayName="Tabla519" ref="A20:D34" totalsRowShown="0">
+  <autoFilter ref="A20:D34" xr:uid="{41A2204F-9041-4D27-8CAE-FC7B5AD60412}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{991BBD3A-F460-47DB-B66B-4BE79EFB6AA4}" name="Amplitud (V)">
+      <calculatedColumnFormula>A20-0.25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{CBEB5000-9EE8-4462-AF3E-18FDA130F585}" name="Amplitud Experimental"/>
+    <tableColumn id="3" xr3:uid="{4903257E-67AD-415D-B34E-1448DE1DC636}" name="Corriente experimental (mA) a 30Hz" dataDxfId="11">
+      <calculatedColumnFormula>Tabla519[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7196AC0B-F8B1-44E4-856C-BBA135EE34CB}" name="Error (%)" dataDxfId="10">
+      <calculatedColumnFormula>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -21845,7 +26340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14B2BB8-75E9-4A16-AAB8-2018B7B60C7A}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -23049,7 +27544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E868A03C-271A-4F8D-9BE9-99D478C798BF}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="H15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AG46" sqref="AG46"/>
     </sheetView>
   </sheetViews>
@@ -25184,14 +29679,2179 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D42F958-7A20-48E8-9383-AD55C95A9BE2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="F1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.3</v>
+      </c>
+      <c r="B3">
+        <v>3.26</v>
+      </c>
+      <c r="C3">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.26</v>
+      </c>
+      <c r="D3" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>1.2121212121212133E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.3</v>
+      </c>
+      <c r="G3">
+        <v>3.24</v>
+      </c>
+      <c r="H3">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.24</v>
+      </c>
+      <c r="I3" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>1.8181818181818063E-2</v>
+      </c>
+      <c r="K3">
+        <v>3.3</v>
+      </c>
+      <c r="L3">
+        <v>3.26</v>
+      </c>
+      <c r="M3">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.26</v>
+      </c>
+      <c r="N3" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>1.2121212121212133E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.25</v>
+      </c>
+      <c r="B4">
+        <v>3.18</v>
+      </c>
+      <c r="C4">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.18</v>
+      </c>
+      <c r="D4" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>2.1538461538461489E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.25</v>
+      </c>
+      <c r="G4">
+        <v>3.24</v>
+      </c>
+      <c r="H4">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.24</v>
+      </c>
+      <c r="I4" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>3.0769230769230114E-3</v>
+      </c>
+      <c r="K4">
+        <v>3.25</v>
+      </c>
+      <c r="L4">
+        <v>3.2</v>
+      </c>
+      <c r="M4">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.2</v>
+      </c>
+      <c r="N4" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>1.538461538461533E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>A4-0.25</f>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2.95</v>
+      </c>
+      <c r="C5">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.95</v>
+      </c>
+      <c r="D5" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="F5">
+        <f>F4-0.25</f>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3.01</v>
+      </c>
+      <c r="H5">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.01</v>
+      </c>
+      <c r="I5" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333332624E-3</v>
+      </c>
+      <c r="K5">
+        <f>K4-0.25</f>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>2.9</v>
+      </c>
+      <c r="M5">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.9</v>
+      </c>
+      <c r="N5" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" ref="A6:A16" si="0">A5-0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="B6">
+        <v>2.72</v>
+      </c>
+      <c r="C6">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.72</v>
+      </c>
+      <c r="D6" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>1.0909090909090839E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F16" si="1">F5-0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="G6">
+        <v>2.76</v>
+      </c>
+      <c r="H6">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.76</v>
+      </c>
+      <c r="I6" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>3.6363636363635587E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K16" si="2">K5-0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="L6">
+        <v>2.7</v>
+      </c>
+      <c r="M6">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.7</v>
+      </c>
+      <c r="N6" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>1.8181818181818118E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="B7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C7">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D7" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>1.9999999999999928E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="G7">
+        <v>2.46</v>
+      </c>
+      <c r="H7">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.46</v>
+      </c>
+      <c r="I7" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="L7">
+        <v>2.46</v>
+      </c>
+      <c r="M7">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.46</v>
+      </c>
+      <c r="N7" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="B8">
+        <v>2.21</v>
+      </c>
+      <c r="C8">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.21</v>
+      </c>
+      <c r="D8" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>1.7777777777777795E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="G8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H8">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I8" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>2.2222222222222143E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="L8">
+        <v>2.21</v>
+      </c>
+      <c r="M8">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.21</v>
+      </c>
+      <c r="N8" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>1.7777777777777795E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1.97</v>
+      </c>
+      <c r="C9">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.97</v>
+      </c>
+      <c r="D9" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>1.5000000000000013E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1.95</v>
+      </c>
+      <c r="H9">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.95</v>
+      </c>
+      <c r="I9" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1.93</v>
+      </c>
+      <c r="M9">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.93</v>
+      </c>
+      <c r="N9" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>3.5000000000000031E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="B10">
+        <v>1.74</v>
+      </c>
+      <c r="C10">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.74</v>
+      </c>
+      <c r="D10" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>5.7142857142857195E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="G10">
+        <v>1.7</v>
+      </c>
+      <c r="H10">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.7</v>
+      </c>
+      <c r="I10" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>2.8571428571428598E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="L10">
+        <v>1.76</v>
+      </c>
+      <c r="M10">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.76</v>
+      </c>
+      <c r="N10" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>5.7142857142857195E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>A10-0.25</f>
+        <v>1.5</v>
+      </c>
+      <c r="B11">
+        <v>1.49</v>
+      </c>
+      <c r="C11">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.49</v>
+      </c>
+      <c r="D11" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>6.6666666666666723E-3</v>
+      </c>
+      <c r="F11">
+        <f>F10-0.25</f>
+        <v>1.5</v>
+      </c>
+      <c r="G11">
+        <v>1.45</v>
+      </c>
+      <c r="H11">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.45</v>
+      </c>
+      <c r="I11" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="K11">
+        <f>K10-0.25</f>
+        <v>1.5</v>
+      </c>
+      <c r="L11">
+        <v>1.46</v>
+      </c>
+      <c r="M11">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.46</v>
+      </c>
+      <c r="N11" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>2.6666666666666689E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="B12">
+        <v>1.23</v>
+      </c>
+      <c r="C12">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.23</v>
+      </c>
+      <c r="D12" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:F16" si="3">F11-0.25</f>
+        <v>1.25</v>
+      </c>
+      <c r="G12">
+        <v>1.23</v>
+      </c>
+      <c r="H12">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.23</v>
+      </c>
+      <c r="I12" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K16" si="4">K11-0.25</f>
+        <v>1.25</v>
+      </c>
+      <c r="L12">
+        <v>1.26</v>
+      </c>
+      <c r="M12">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.26</v>
+      </c>
+      <c r="N12" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.02</v>
+      </c>
+      <c r="D13" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.98</v>
+      </c>
+      <c r="H13">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.98</v>
+      </c>
+      <c r="I13" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1.01</v>
+      </c>
+      <c r="M13">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.01</v>
+      </c>
+      <c r="N13" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>A13-0.25</f>
+        <v>0.75</v>
+      </c>
+      <c r="B14">
+        <v>0.76</v>
+      </c>
+      <c r="C14">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.76</v>
+      </c>
+      <c r="D14" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>1.3333333333333345E-2</v>
+      </c>
+      <c r="F14">
+        <f>F13-0.25</f>
+        <v>0.75</v>
+      </c>
+      <c r="G14">
+        <v>0.76</v>
+      </c>
+      <c r="H14">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.76</v>
+      </c>
+      <c r="I14" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>1.3333333333333345E-2</v>
+      </c>
+      <c r="K14">
+        <f>K13-0.25</f>
+        <v>0.75</v>
+      </c>
+      <c r="L14">
+        <v>0.74</v>
+      </c>
+      <c r="M14">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.74</v>
+      </c>
+      <c r="N14" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>1.3333333333333345E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="B15">
+        <v>0.52</v>
+      </c>
+      <c r="C15">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.52</v>
+      </c>
+      <c r="D15" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F16" si="5">F14-0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.52</v>
+      </c>
+      <c r="H15">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.52</v>
+      </c>
+      <c r="I15" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:K16" si="6">K14-0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="L15">
+        <v>0.51</v>
+      </c>
+      <c r="M15">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.51</v>
+      </c>
+      <c r="N15" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="B16">
+        <v>0.26</v>
+      </c>
+      <c r="C16">
+        <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.26</v>
+      </c>
+      <c r="D16" s="12">
+        <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G16">
+        <v>0.26</v>
+      </c>
+      <c r="H16">
+        <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.26</v>
+      </c>
+      <c r="I16" s="12">
+        <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="L16">
+        <v>0.25</v>
+      </c>
+      <c r="M16">
+        <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="N16" s="12">
+        <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="K19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3.3</v>
+      </c>
+      <c r="B21">
+        <v>3.35</v>
+      </c>
+      <c r="C21">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.35</v>
+      </c>
+      <c r="D21" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>1.5151515151515233E-2</v>
+      </c>
+      <c r="F21">
+        <v>3.3</v>
+      </c>
+      <c r="G21">
+        <v>3.36</v>
+      </c>
+      <c r="H21">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.36</v>
+      </c>
+      <c r="I21" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>1.8181818181818198E-2</v>
+      </c>
+      <c r="K21">
+        <v>3.3</v>
+      </c>
+      <c r="L21">
+        <v>3.32</v>
+      </c>
+      <c r="M21">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.32</v>
+      </c>
+      <c r="N21" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>6.0606060606060667E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.25</v>
+      </c>
+      <c r="B22">
+        <v>3.22</v>
+      </c>
+      <c r="C22">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.22</v>
+      </c>
+      <c r="D22" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>9.2307692307691709E-3</v>
+      </c>
+      <c r="F22">
+        <v>3.25</v>
+      </c>
+      <c r="G22">
+        <v>3.28</v>
+      </c>
+      <c r="H22">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.28</v>
+      </c>
+      <c r="I22" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>9.2307692307691709E-3</v>
+      </c>
+      <c r="K22">
+        <v>3.25</v>
+      </c>
+      <c r="L22">
+        <v>3.24</v>
+      </c>
+      <c r="M22">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.24</v>
+      </c>
+      <c r="N22" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>3.0769230769230114E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>A22-0.25</f>
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2.9</v>
+      </c>
+      <c r="C23">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.9</v>
+      </c>
+      <c r="D23" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="F23">
+        <f>F22-0.25</f>
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3.1</v>
+      </c>
+      <c r="H23">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.1</v>
+      </c>
+      <c r="I23" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="K23">
+        <f>K22-0.25</f>
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>2.9</v>
+      </c>
+      <c r="M23">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.9</v>
+      </c>
+      <c r="N23" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" ref="A24:A34" si="7">A23-0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="B24">
+        <v>2.72</v>
+      </c>
+      <c r="C24">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.72</v>
+      </c>
+      <c r="D24" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>1.0909090909090839E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F34" si="8">F23-0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="G24">
+        <v>2.75</v>
+      </c>
+      <c r="H24">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.75</v>
+      </c>
+      <c r="I24" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K34" si="9">K23-0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="L24">
+        <v>2.76</v>
+      </c>
+      <c r="M24">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.76</v>
+      </c>
+      <c r="N24" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>3.6363636363635587E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+      <c r="B25">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C25">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D25" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>1.9999999999999928E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="G25">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H25">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I25" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>1.9999999999999928E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="L25">
+        <v>2.46</v>
+      </c>
+      <c r="M25">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.46</v>
+      </c>
+      <c r="N25" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="7"/>
+        <v>2.25</v>
+      </c>
+      <c r="B26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C26">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D26" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>2.2222222222222143E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>2.25</v>
+      </c>
+      <c r="G26">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H26">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I26" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>4.4444444444443499E-3</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>2.25</v>
+      </c>
+      <c r="L26">
+        <v>2.23</v>
+      </c>
+      <c r="M26">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.23</v>
+      </c>
+      <c r="N26" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>8.8888888888888976E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1.95</v>
+      </c>
+      <c r="C27">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.95</v>
+      </c>
+      <c r="D27" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1.96</v>
+      </c>
+      <c r="H27">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.96</v>
+      </c>
+      <c r="I27" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1.94</v>
+      </c>
+      <c r="M27">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.94</v>
+      </c>
+      <c r="N27" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="7"/>
+        <v>1.75</v>
+      </c>
+      <c r="B28">
+        <v>1.74</v>
+      </c>
+      <c r="C28">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.74</v>
+      </c>
+      <c r="D28" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>5.7142857142857195E-3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+      <c r="G28">
+        <v>1.76</v>
+      </c>
+      <c r="H28">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.76</v>
+      </c>
+      <c r="I28" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>5.7142857142857195E-3</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="9"/>
+        <v>1.75</v>
+      </c>
+      <c r="L28">
+        <v>1.75</v>
+      </c>
+      <c r="M28">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.75</v>
+      </c>
+      <c r="N28" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>A28-0.25</f>
+        <v>1.5</v>
+      </c>
+      <c r="B29">
+        <v>1.45</v>
+      </c>
+      <c r="C29">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.45</v>
+      </c>
+      <c r="D29" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="F29">
+        <f>F28-0.25</f>
+        <v>1.5</v>
+      </c>
+      <c r="G29">
+        <v>1.45</v>
+      </c>
+      <c r="H29">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.45</v>
+      </c>
+      <c r="I29" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="K29">
+        <f>K28-0.25</f>
+        <v>1.5</v>
+      </c>
+      <c r="L29">
+        <v>1.45</v>
+      </c>
+      <c r="M29">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.45</v>
+      </c>
+      <c r="N29" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" ref="A30:A34" si="10">A29-0.25</f>
+        <v>1.25</v>
+      </c>
+      <c r="B30">
+        <v>1.21</v>
+      </c>
+      <c r="C30">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.21</v>
+      </c>
+      <c r="D30" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>3.2000000000000028E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:F34" si="11">F29-0.25</f>
+        <v>1.25</v>
+      </c>
+      <c r="G30">
+        <v>1.23</v>
+      </c>
+      <c r="H30">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.23</v>
+      </c>
+      <c r="I30" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K34" si="12">K29-0.25</f>
+        <v>1.25</v>
+      </c>
+      <c r="L30">
+        <v>1.26</v>
+      </c>
+      <c r="M30">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.26</v>
+      </c>
+      <c r="N30" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1.02</v>
+      </c>
+      <c r="C31">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.02</v>
+      </c>
+      <c r="D31" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1.01</v>
+      </c>
+      <c r="M31">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.01</v>
+      </c>
+      <c r="N31" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>A31-0.25</f>
+        <v>0.75</v>
+      </c>
+      <c r="B32">
+        <v>0.76</v>
+      </c>
+      <c r="C32">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.76</v>
+      </c>
+      <c r="D32" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>1.3333333333333345E-2</v>
+      </c>
+      <c r="F32">
+        <f>F31-0.25</f>
+        <v>0.75</v>
+      </c>
+      <c r="G32">
+        <v>0.76</v>
+      </c>
+      <c r="H32">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.76</v>
+      </c>
+      <c r="I32" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>1.3333333333333345E-2</v>
+      </c>
+      <c r="K32">
+        <f>K31-0.25</f>
+        <v>0.75</v>
+      </c>
+      <c r="L32">
+        <v>0.74</v>
+      </c>
+      <c r="M32">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.74</v>
+      </c>
+      <c r="N32" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>1.3333333333333345E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" ref="A33:A34" si="13">A32-0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="B33">
+        <v>0.51</v>
+      </c>
+      <c r="C33">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.51</v>
+      </c>
+      <c r="D33" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F34" si="14">F32-0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.49</v>
+      </c>
+      <c r="H33">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.49</v>
+      </c>
+      <c r="I33" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K34" si="15">K32-0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <v>0.51</v>
+      </c>
+      <c r="M33">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.51</v>
+      </c>
+      <c r="N33" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="B34">
+        <v>0.25</v>
+      </c>
+      <c r="C34">
+        <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="12">
+        <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="G34">
+        <v>0.25</v>
+      </c>
+      <c r="H34">
+        <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="I34" s="12">
+        <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="15"/>
+        <v>0.25</v>
+      </c>
+      <c r="L34">
+        <v>0.25</v>
+      </c>
+      <c r="M34">
+        <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="N34" s="12">
+        <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="F37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="K37" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3.3</v>
+      </c>
+      <c r="B39">
+        <v>3.35</v>
+      </c>
+      <c r="C39">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.35</v>
+      </c>
+      <c r="D39" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>1.5151515151515233E-2</v>
+      </c>
+      <c r="F39">
+        <v>3.3</v>
+      </c>
+      <c r="G39">
+        <v>3.3</v>
+      </c>
+      <c r="H39">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.3</v>
+      </c>
+      <c r="I39" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>3.3</v>
+      </c>
+      <c r="L39">
+        <v>3.3</v>
+      </c>
+      <c r="M39">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.3</v>
+      </c>
+      <c r="N39" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3.25</v>
+      </c>
+      <c r="B40">
+        <v>3.21</v>
+      </c>
+      <c r="C40">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.21</v>
+      </c>
+      <c r="D40" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>1.2307692307692318E-2</v>
+      </c>
+      <c r="F40">
+        <v>3.25</v>
+      </c>
+      <c r="G40">
+        <v>3.2</v>
+      </c>
+      <c r="H40">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.2</v>
+      </c>
+      <c r="I40" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>1.538461538461533E-2</v>
+      </c>
+      <c r="K40">
+        <v>3.25</v>
+      </c>
+      <c r="L40">
+        <v>3.2</v>
+      </c>
+      <c r="M40">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.2</v>
+      </c>
+      <c r="N40" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>1.538461538461533E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>A40-0.25</f>
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>3.1</v>
+      </c>
+      <c r="C41">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>3.1</v>
+      </c>
+      <c r="D41" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="F41">
+        <f>F40-0.25</f>
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>2.9</v>
+      </c>
+      <c r="H41">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.9</v>
+      </c>
+      <c r="I41" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+      <c r="K41">
+        <f>K40-0.25</f>
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>2.9</v>
+      </c>
+      <c r="M41">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.9</v>
+      </c>
+      <c r="N41" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>3.3333333333333361E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" ref="A42:A52" si="16">A41-0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="B42">
+        <v>2.72</v>
+      </c>
+      <c r="C42">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.72</v>
+      </c>
+      <c r="D42" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>1.0909090909090839E-2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:F52" si="17">F41-0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="G42">
+        <v>2.74</v>
+      </c>
+      <c r="H42">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.74</v>
+      </c>
+      <c r="I42" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>3.6363636363635587E-3</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:K52" si="18">K41-0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="L42">
+        <v>2.7</v>
+      </c>
+      <c r="M42">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.7</v>
+      </c>
+      <c r="N42" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>1.8181818181818118E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="B43">
+        <v>2.52</v>
+      </c>
+      <c r="C43">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.52</v>
+      </c>
+      <c r="D43" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="G43">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H43">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I43" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>1.9999999999999928E-2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="18"/>
+        <v>2.5</v>
+      </c>
+      <c r="L43">
+        <v>2.46</v>
+      </c>
+      <c r="M43">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.46</v>
+      </c>
+      <c r="N43" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="16"/>
+        <v>2.25</v>
+      </c>
+      <c r="B44">
+        <v>2.25</v>
+      </c>
+      <c r="C44">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.25</v>
+      </c>
+      <c r="D44" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="17"/>
+        <v>2.25</v>
+      </c>
+      <c r="G44">
+        <v>2.25</v>
+      </c>
+      <c r="H44">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.25</v>
+      </c>
+      <c r="I44" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="18"/>
+        <v>2.25</v>
+      </c>
+      <c r="L44">
+        <v>2.21</v>
+      </c>
+      <c r="M44">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.21</v>
+      </c>
+      <c r="N44" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>1.7777777777777795E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C45">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D45" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>2.4999999999999911E-2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1.94</v>
+      </c>
+      <c r="H45">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.94</v>
+      </c>
+      <c r="I45" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>1.93</v>
+      </c>
+      <c r="M45">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.93</v>
+      </c>
+      <c r="N45" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>3.5000000000000031E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="16"/>
+        <v>1.75</v>
+      </c>
+      <c r="B46">
+        <v>1.76</v>
+      </c>
+      <c r="C46">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.76</v>
+      </c>
+      <c r="D46" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>5.7142857142857195E-3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="G46">
+        <v>1.7</v>
+      </c>
+      <c r="H46">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.7</v>
+      </c>
+      <c r="I46" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>2.8571428571428598E-2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="18"/>
+        <v>1.75</v>
+      </c>
+      <c r="L46">
+        <v>1.76</v>
+      </c>
+      <c r="M46">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.76</v>
+      </c>
+      <c r="N46" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>5.7142857142857195E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f>A46-0.25</f>
+        <v>1.5</v>
+      </c>
+      <c r="B47">
+        <v>1.46</v>
+      </c>
+      <c r="C47">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.46</v>
+      </c>
+      <c r="D47" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>2.6666666666666689E-2</v>
+      </c>
+      <c r="F47">
+        <f>F46-0.25</f>
+        <v>1.5</v>
+      </c>
+      <c r="G47">
+        <v>1.44</v>
+      </c>
+      <c r="H47">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.44</v>
+      </c>
+      <c r="I47" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K47">
+        <f>K46-0.25</f>
+        <v>1.5</v>
+      </c>
+      <c r="L47">
+        <v>1.46</v>
+      </c>
+      <c r="M47">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.46</v>
+      </c>
+      <c r="N47" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>2.6666666666666689E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" ref="A48:A52" si="19">A47-0.25</f>
+        <v>1.25</v>
+      </c>
+      <c r="B48">
+        <v>1.21</v>
+      </c>
+      <c r="C48">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.21</v>
+      </c>
+      <c r="D48" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>3.2000000000000028E-2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:F52" si="20">F47-0.25</f>
+        <v>1.25</v>
+      </c>
+      <c r="G48">
+        <v>1.23</v>
+      </c>
+      <c r="H48">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.23</v>
+      </c>
+      <c r="I48" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ref="K48:K52" si="21">K47-0.25</f>
+        <v>1.25</v>
+      </c>
+      <c r="L48">
+        <v>1.26</v>
+      </c>
+      <c r="M48">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.26</v>
+      </c>
+      <c r="N48" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1.02</v>
+      </c>
+      <c r="C49">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.02</v>
+      </c>
+      <c r="D49" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0.98</v>
+      </c>
+      <c r="H49">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.98</v>
+      </c>
+      <c r="I49" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1.01</v>
+      </c>
+      <c r="M49">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>1.01</v>
+      </c>
+      <c r="N49" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f>A49-0.25</f>
+        <v>0.75</v>
+      </c>
+      <c r="B50">
+        <v>0.76</v>
+      </c>
+      <c r="C50">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.76</v>
+      </c>
+      <c r="D50" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>1.3333333333333345E-2</v>
+      </c>
+      <c r="F50">
+        <f>F49-0.25</f>
+        <v>0.75</v>
+      </c>
+      <c r="G50">
+        <v>0.76</v>
+      </c>
+      <c r="H50">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.76</v>
+      </c>
+      <c r="I50" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>1.3333333333333345E-2</v>
+      </c>
+      <c r="K50">
+        <f>K49-0.25</f>
+        <v>0.75</v>
+      </c>
+      <c r="L50">
+        <v>0.74</v>
+      </c>
+      <c r="M50">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.74</v>
+      </c>
+      <c r="N50" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>1.3333333333333345E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" ref="A51:A52" si="22">A50-0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="B51">
+        <v>0.51</v>
+      </c>
+      <c r="C51">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.51</v>
+      </c>
+      <c r="D51" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:F52" si="23">F50-0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="G51">
+        <v>0.5</v>
+      </c>
+      <c r="H51">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ref="K51:K52" si="24">K50-0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="L51">
+        <v>0.51</v>
+      </c>
+      <c r="M51">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.51</v>
+      </c>
+      <c r="N51" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="22"/>
+        <v>0.25</v>
+      </c>
+      <c r="B52">
+        <v>0.26</v>
+      </c>
+      <c r="C52">
+        <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.26</v>
+      </c>
+      <c r="D52" s="12">
+        <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="23"/>
+        <v>0.25</v>
+      </c>
+      <c r="G52">
+        <v>0.26</v>
+      </c>
+      <c r="H52">
+        <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.26</v>
+      </c>
+      <c r="I52" s="12">
+        <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="24"/>
+        <v>0.25</v>
+      </c>
+      <c r="L52">
+        <v>0.25</v>
+      </c>
+      <c r="M52">
+        <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
+        <v>0.25</v>
+      </c>
+      <c r="N52" s="12">
+        <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="K19:N19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="9">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Estimulador/Caracterizacion/Tablas_Resultados.xlsx
+++ b/Estimulador/Caracterizacion/Tablas_Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Universidad UVG\Sexto Año\Segundo Ciclo\Tesis\Tesis-2022-Erick-Aquino\Estimulador\Caracterizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0594372-5359-4263-9BA1-D96231D7B2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFD2C6B-AD7C-4B18-8009-1E97A8A7C500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{EFFD592A-B6F9-484D-AA51-F79BFFF83EBA}"/>
   </bookViews>
@@ -17,6 +17,8 @@
     <sheet name="POT_DIG" sheetId="2" r:id="rId2"/>
     <sheet name="Rampas" sheetId="3" r:id="rId3"/>
     <sheet name="Voltage-Current" sheetId="4" r:id="rId4"/>
+    <sheet name="Duarcion bateria" sheetId="5" r:id="rId5"/>
+    <sheet name="Varilla_prog" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
     <t>Error (%)</t>
   </si>
@@ -166,13 +168,38 @@
   <si>
     <t>Corriente experimental (mA) a 10Hz</t>
   </si>
+  <si>
+    <t>Ciclo de trabajo de 50 %</t>
+  </si>
+  <si>
+    <t>Consumo en uso (mA)</t>
+  </si>
+  <si>
+    <t>Frecuencia (Hz)</t>
+  </si>
+  <si>
+    <t>Consumo estimado (mA)</t>
+  </si>
+  <si>
+    <t>Vida útil bateria 550 mAh (años)</t>
+  </si>
+  <si>
+    <t>Vida útil bateria 1000 mAh (años)</t>
+  </si>
+  <si>
+    <t>Vida útil bateria 4000 mAh (años)</t>
+  </si>
+  <si>
+    <t>Ciclo de trabajo de 20 %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="173" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -229,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,19 +288,72 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="93">
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -6361,7 +6441,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -25726,30 +25805,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DB0725B-06C7-40AB-8951-220298407BB2}" name="Tabla1" displayName="Tabla1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DB0725B-06C7-40AB-8951-220298407BB2}" name="Tabla1" displayName="Tabla1" ref="A1:J23" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A1:J23" xr:uid="{4DB0725B-06C7-40AB-8951-220298407BB2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
     <sortCondition ref="A1:A23"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{D8BE834C-C6A0-4D47-BBA1-05DAD44C12B6}" name="Frequencia PWM Teorica (Hz)" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{E3D22371-E809-4283-A1E6-06CCF407C76F}" name="Pomedio PWM (Hz)" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{27EE4F05-B556-4BCF-B7F8-6EDA21BE7791}" name="Error (%)" dataDxfId="74" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{D8BE834C-C6A0-4D47-BBA1-05DAD44C12B6}" name="Frequencia PWM Teorica (Hz)" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{E3D22371-E809-4283-A1E6-06CCF407C76F}" name="Pomedio PWM (Hz)" dataDxfId="89"/>
+    <tableColumn id="3" xr3:uid="{27EE4F05-B556-4BCF-B7F8-6EDA21BE7791}" name="Error (%)" dataDxfId="88" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla1[[#This Row],[Pomedio PWM (Hz)]]-Tabla1[[#This Row],[Frequencia PWM Teorica (Hz)]])/Tabla1[[#This Row],[Frequencia PWM Teorica (Hz)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C87F5F2D-3C48-4667-A3F8-31665B839217}" name="Ciclo de trabajo teorico" dataDxfId="73" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" xr3:uid="{D2FC5D2D-9F0F-40CD-92B9-A87E4EF0119F}" name="Promedio ciclo de trabajo (%)" dataDxfId="72" dataCellStyle="Porcentaje"/>
-    <tableColumn id="10" xr3:uid="{5ED67E0A-997F-46E6-BF33-45D8CF858762}" name="Error ciclo de trabajo (%)" dataDxfId="71" dataCellStyle="Porcentaje">
+    <tableColumn id="8" xr3:uid="{C87F5F2D-3C48-4667-A3F8-31665B839217}" name="Ciclo de trabajo teorico" dataDxfId="87" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{D2FC5D2D-9F0F-40CD-92B9-A87E4EF0119F}" name="Promedio ciclo de trabajo (%)" dataDxfId="86" dataCellStyle="Porcentaje"/>
+    <tableColumn id="10" xr3:uid="{5ED67E0A-997F-46E6-BF33-45D8CF858762}" name="Error ciclo de trabajo (%)" dataDxfId="85" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla1[[#This Row],[Promedio ciclo de trabajo (%)]]-Tabla1[[#This Row],[Ciclo de trabajo teorico]])/Tabla1[[#This Row],[Ciclo de trabajo teorico]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E6A42BD8-6B1E-494C-92D0-8809E4C6E417}" name="Ancho de pulso teorico (ms)" dataDxfId="70">
+    <tableColumn id="4" xr3:uid="{E6A42BD8-6B1E-494C-92D0-8809E4C6E417}" name="Ancho de pulso teorico (ms)" dataDxfId="84">
       <calculatedColumnFormula>(1/Tabla1[[#This Row],[Frequencia PWM Teorica (Hz)]])*Tabla1[[#This Row],[Ciclo de trabajo teorico]]*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{18FA8CF7-1748-4290-934F-195BB10A3E9D}" name="Promedio Ancho de pulso (ms)" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{8C38799C-6282-4F30-8155-2F925A8104B1}" name="Error ancho de pulso (%)" dataDxfId="68" dataCellStyle="Porcentaje">
+    <tableColumn id="6" xr3:uid="{18FA8CF7-1748-4290-934F-195BB10A3E9D}" name="Promedio Ancho de pulso (ms)" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{8C38799C-6282-4F30-8155-2F925A8104B1}" name="Error ancho de pulso (%)" dataDxfId="82" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla1[[#This Row],[Promedio Ancho de pulso (ms)]]-Tabla1[[#This Row],[Ancho de pulso teorico (ms)]])/Tabla1[[#This Row],[Ancho de pulso teorico (ms)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1B8DFAA5-0DC3-4A17-85A3-B56B9D035E8D}" name="voltaje (v)" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{1B8DFAA5-0DC3-4A17-85A3-B56B9D035E8D}" name="voltaje (v)" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -25763,10 +25842,10 @@
       <calculatedColumnFormula>F20-0.25</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{647A2252-27DB-4B7E-BAD9-AC7BE668E149}" name="Amplitud Experimental"/>
-    <tableColumn id="3" xr3:uid="{BD053EE5-57D7-458A-BCB4-B4BBE64DE4E0}" name="Corriente experimental (mA) a 20Hz" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{BD053EE5-57D7-458A-BCB4-B4BBE64DE4E0}" name="Corriente experimental (mA) a 20Hz" dataDxfId="23">
       <calculatedColumnFormula>Tabla5920[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D465D2CF-CB0D-4F8B-8B38-F782CAEA766C}" name="Error (%)" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{D465D2CF-CB0D-4F8B-8B38-F782CAEA766C}" name="Error (%)" dataDxfId="22">
       <calculatedColumnFormula>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25782,10 +25861,10 @@
       <calculatedColumnFormula>K20-0.25</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ED27F1B4-89E2-437B-A677-16F3157ED352}" name="Amplitud Experimental"/>
-    <tableColumn id="3" xr3:uid="{4496C6BA-A830-4CF9-948B-F7B9ED94F700}" name="Corriente experimental (mA) a 10Hz" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{4496C6BA-A830-4CF9-948B-F7B9ED94F700}" name="Corriente experimental (mA) a 10Hz" dataDxfId="21">
       <calculatedColumnFormula>Tabla51021[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6FE5A946-D7C4-45E7-8497-C3C0CC6F09C1}" name="Error (%)" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{6FE5A946-D7C4-45E7-8497-C3C0CC6F09C1}" name="Error (%)" dataDxfId="20">
       <calculatedColumnFormula>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25801,10 +25880,10 @@
       <calculatedColumnFormula>A38-0.25</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{ADA40132-4642-4890-B28E-FCB760ED7A68}" name="Amplitud Experimental"/>
-    <tableColumn id="3" xr3:uid="{79943565-18BC-4704-AB80-BA26F8A6DCA7}" name="Corriente experimental (mA) a 30Hz" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{79943565-18BC-4704-AB80-BA26F8A6DCA7}" name="Corriente experimental (mA) a 30Hz" dataDxfId="19">
       <calculatedColumnFormula>Tabla522[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{11B4289A-A449-4422-8DFD-1D47B2425677}" name="Error (%)" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{11B4289A-A449-4422-8DFD-1D47B2425677}" name="Error (%)" dataDxfId="18">
       <calculatedColumnFormula>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25820,10 +25899,10 @@
       <calculatedColumnFormula>F38-0.25</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{0ED2D2DA-227C-4982-881D-3E4288781B2E}" name="Amplitud Experimental"/>
-    <tableColumn id="3" xr3:uid="{9798B942-CEB9-4945-82FD-DBE231C53CE3}" name="Corriente experimental (mA) a 20Hz" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{9798B942-CEB9-4945-82FD-DBE231C53CE3}" name="Corriente experimental (mA) a 20Hz" dataDxfId="17">
       <calculatedColumnFormula>Tabla5923[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{83AE26B0-DD36-4094-884B-F225013EF1EC}" name="Error (%)" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{83AE26B0-DD36-4094-884B-F225013EF1EC}" name="Error (%)" dataDxfId="16">
       <calculatedColumnFormula>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25839,10 +25918,10 @@
       <calculatedColumnFormula>K38-0.25</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{2CD90928-CB75-48EC-9302-E35ED29925C8}" name="Amplitud Experimental"/>
-    <tableColumn id="3" xr3:uid="{347EA2DC-4908-42C1-91D1-651E27451F60}" name="Corriente experimental (mA) a 10Hz" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{347EA2DC-4908-42C1-91D1-651E27451F60}" name="Corriente experimental (mA) a 10Hz" dataDxfId="15">
       <calculatedColumnFormula>Tabla51024[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BE14CB09-49D2-4099-AAB5-1AC95E059925}" name="Error (%)" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{BE14CB09-49D2-4099-AAB5-1AC95E059925}" name="Error (%)" dataDxfId="14">
       <calculatedColumnFormula>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25850,21 +25929,67 @@
 </table>
 </file>
 
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{87EC235A-F303-43BB-9A0C-C42A9F1B1A6B}" name="Tabla4" displayName="Tabla4" ref="A2:F8" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A2:F8" xr:uid="{87EC235A-F303-43BB-9A0C-C42A9F1B1A6B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{9177FB28-A459-4360-BDE6-5CB3066A120A}" name="Frecuencia (Hz)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{CC0F49CE-A62A-407E-A873-95B73557592C}" name="Consumo en uso (mA)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{68365ED9-5C0D-4C70-8D4B-912525987E2E}" name="Consumo estimado (mA)" dataDxfId="10">
+      <calculatedColumnFormula>((Tabla4[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{55B8D523-B322-462D-9EFC-4E06A8AB49B9}" name="Vida útil bateria 550 mAh (años)" dataDxfId="9">
+      <calculatedColumnFormula>(550/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{4586B5ED-E812-4032-AFDF-B044923DFC22}" name="Vida útil bateria 1000 mAh (años)" dataDxfId="8">
+      <calculatedColumnFormula>(1000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{3F6A5C9D-7C5D-4DE2-BF06-405B67867A0C}" name="Vida útil bateria 4000 mAh (años)" dataDxfId="7">
+      <calculatedColumnFormula>(4000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1BC15146-B16C-4770-BC25-0E328057E3ED}" name="Tabla47" displayName="Tabla47" ref="A11:F17" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A11:F17" xr:uid="{1BC15146-B16C-4770-BC25-0E328057E3ED}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{FB1BCBCE-3C4A-4954-BF7C-A0A5DBF85C1B}" name="Frecuencia (Hz)" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{7FBBE901-2877-4031-A0C0-BBCB1930D38A}" name="Consumo en uso (mA)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{144ABDE7-6511-49EF-B972-31FBD76FA86D}" name="Consumo estimado (mA)" dataDxfId="3">
+      <calculatedColumnFormula>((Tabla47[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C8E5D5A2-0B0C-426C-A003-1BDB8C64EFA1}" name="Vida útil bateria 550 mAh (años)" dataDxfId="2">
+      <calculatedColumnFormula>(550/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{8E767442-23E1-44A3-A69D-777D7377AECA}" name="Vida útil bateria 1000 mAh (años)" dataDxfId="1">
+      <calculatedColumnFormula>(1000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{4B5B4ED8-2A1F-49A6-A60C-C1D0C9D3C477}" name="Vida útil bateria 4000 mAh (años)" dataDxfId="0">
+      <calculatedColumnFormula>(4000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{541620B9-3328-4E80-87D7-6993CCFCC757}" name="Tabla2" displayName="Tabla2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{541620B9-3328-4E80-87D7-6993CCFCC757}" name="Tabla2" displayName="Tabla2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A1:E16" xr:uid="{541620B9-3328-4E80-87D7-6993CCFCC757}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C17AFB38-CE22-46D7-8F22-0682A82000DC}" name="Amplitud  teórica (V)" dataDxfId="64">
+    <tableColumn id="1" xr3:uid="{C17AFB38-CE22-46D7-8F22-0682A82000DC}" name="Amplitud  teórica (V)" dataDxfId="78">
       <calculatedColumnFormula>A1-0.25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CAC73A74-053C-4BEA-BFA3-0EF61C871549}" name="Amplitud experimental (V)" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{58572678-C524-4439-815F-B36F210BCB44}" name="Error (%)" dataDxfId="62">
+    <tableColumn id="2" xr3:uid="{CAC73A74-053C-4BEA-BFA3-0EF61C871549}" name="Amplitud experimental (V)" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{58572678-C524-4439-815F-B36F210BCB44}" name="Error (%)" dataDxfId="76">
       <calculatedColumnFormula>ABS((Tabla2[[#This Row],[Amplitud experimental (V)]]-Tabla2[[#This Row],[Amplitud  teórica (V)]])/Tabla2[[#This Row],[Amplitud  teórica (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C3BEE760-7C9E-4D95-A987-D6B7F4281D8C}" name="Potenciometro (%)" dataDxfId="61" dataCellStyle="Porcentaje">
+    <tableColumn id="4" xr3:uid="{C3BEE760-7C9E-4D95-A987-D6B7F4281D8C}" name="Potenciometro (%)" dataDxfId="75" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>(Tabla2[[#This Row],[Value sent (0 - 255)]]*100/255)*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6E5851DF-90B5-4596-B293-DB5BB1C46723}" name="Value sent (0 - 255)" dataDxfId="60">
+    <tableColumn id="5" xr3:uid="{6E5851DF-90B5-4596-B293-DB5BB1C46723}" name="Value sent (0 - 255)" dataDxfId="74">
       <calculatedColumnFormula>Tabla2[[#This Row],[Amplitud  teórica (V)]]*255/3.3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25873,29 +25998,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BBDF8BE-AC6E-4031-9579-29D05467F7BF}" name="Tabla3" displayName="Tabla3" ref="A2:L17" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BBDF8BE-AC6E-4031-9579-29D05467F7BF}" name="Tabla3" displayName="Tabla3" ref="A2:L17" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="A2:L17" xr:uid="{5BBDF8BE-AC6E-4031-9579-29D05467F7BF}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{9F71D84F-9878-4D36-8936-9D003F31027F}" name="Frecuencia teórica (Hz) " dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{5282C3EA-F82F-4E75-BDCF-1084006587B3}" name="Frecuencia experimental (Hz)" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{ED172ABE-988C-4750-854D-F9F0691C9376}" name="Error Frecuencia (%)" dataDxfId="55" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{9F71D84F-9878-4D36-8936-9D003F31027F}" name="Frecuencia teórica (Hz) " dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{5282C3EA-F82F-4E75-BDCF-1084006587B3}" name="Frecuencia experimental (Hz)" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{ED172ABE-988C-4750-854D-F9F0691C9376}" name="Error Frecuencia (%)" dataDxfId="69" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Frecuencia experimental (Hz)]]-Tabla3[[#This Row],[Frecuencia teórica (Hz) ]])/Tabla3[[#This Row],[Frecuencia teórica (Hz) ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{88E66329-9A9A-4F1D-81CC-884B1C7872B9}" name="Amplitud teórica (V)" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{09F1E6EF-B67B-451B-9DE2-1EE82D3585CB}" name="Amplitud experimental (V)" dataDxfId="53"/>
-    <tableColumn id="12" xr3:uid="{C80D96D2-FC0F-48F2-9D46-C0DFF83B2CD7}" name="Error Amplitud (%)" dataDxfId="52">
+    <tableColumn id="4" xr3:uid="{88E66329-9A9A-4F1D-81CC-884B1C7872B9}" name="Amplitud teórica (V)" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{09F1E6EF-B67B-451B-9DE2-1EE82D3585CB}" name="Amplitud experimental (V)" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{C80D96D2-FC0F-48F2-9D46-C0DFF83B2CD7}" name="Error Amplitud (%)" dataDxfId="66">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Amplitud experimental (V)]]-Tabla3[[#This Row],[Amplitud teórica (V)]])/Tabla3[[#This Row],[Amplitud teórica (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D4F0D9EB-B70D-4932-A0EB-05BFE46B43ED}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{2EBD1AB8-5FE1-4887-AE3B-19D56A70A9EF}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{CCAC1463-901C-4C7D-A762-180D99650D11}" name="error tiempo de subida (%)" dataDxfId="49">
+    <tableColumn id="5" xr3:uid="{D4F0D9EB-B70D-4932-A0EB-05BFE46B43ED}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{2EBD1AB8-5FE1-4887-AE3B-19D56A70A9EF}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{CCAC1463-901C-4C7D-A762-180D99650D11}" name="error tiempo de subida (%)" dataDxfId="63">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]-Tabla3[[#This Row],[Tiempo Rampa Subida Teórico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Subida Teórico (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30C74FAF-B5D2-44CA-BF59-EB5E6D7B1A9C}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{1891CEE3-E6E8-47C1-98E4-60A57F883566}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="47">
+    <tableColumn id="8" xr3:uid="{30C74FAF-B5D2-44CA-BF59-EB5E6D7B1A9C}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{1891CEE3-E6E8-47C1-98E4-60A57F883566}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="61">
       <calculatedColumnFormula>Tabla3[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{16438C67-DAE6-4F33-8725-B2B824DE7049}" name="error bajada (%)" dataDxfId="46">
+    <tableColumn id="10" xr3:uid="{16438C67-DAE6-4F33-8725-B2B824DE7049}" name="error bajada (%)" dataDxfId="60">
       <calculatedColumnFormula>ABS((Tabla3[[#This Row],[Tiempo Experimental de Rampa de bajada (s)]]-Tabla3[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])/Tabla3[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25904,29 +26029,29 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{04551ECA-EF0C-4696-9301-5248DE3C38A9}" name="Tabla311" displayName="Tabla311" ref="A22:L37" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{04551ECA-EF0C-4696-9301-5248DE3C38A9}" name="Tabla311" displayName="Tabla311" ref="A22:L37" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A22:L37" xr:uid="{04551ECA-EF0C-4696-9301-5248DE3C38A9}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{954A970E-0EE2-41A4-96CD-DF54CD9B89BD}" name="Frecuencia teórica (Hz) " dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{4F819BC9-EAF4-4102-98E5-2D695C220C79}" name="Frecuencia experimental (Hz)" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{3EA23BCF-637E-4183-951D-AE5A4E1B4996}" name="Error Frecuencia (%)" dataDxfId="41" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{954A970E-0EE2-41A4-96CD-DF54CD9B89BD}" name="Frecuencia teórica (Hz) " dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{4F819BC9-EAF4-4102-98E5-2D695C220C79}" name="Frecuencia experimental (Hz)" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{3EA23BCF-637E-4183-951D-AE5A4E1B4996}" name="Error Frecuencia (%)" dataDxfId="55" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Frecuencia experimental (Hz)]]-Tabla311[[#This Row],[Frecuencia teórica (Hz) ]])/Tabla311[[#This Row],[Frecuencia teórica (Hz) ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57FDEE6C-38A0-4878-90E5-D462DC893965}" name="Amplitud teórica (V)" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{A1EA1D9B-8E35-45C2-BC97-1F7531639C8E}" name="Amplitud experimental (V)" dataDxfId="39"/>
-    <tableColumn id="12" xr3:uid="{5C5B86F0-2C62-4EC7-90DB-16CD3F02F215}" name="Error Amplitud (%)" dataDxfId="38">
+    <tableColumn id="4" xr3:uid="{57FDEE6C-38A0-4878-90E5-D462DC893965}" name="Amplitud teórica (V)" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{A1EA1D9B-8E35-45C2-BC97-1F7531639C8E}" name="Amplitud experimental (V)" dataDxfId="53"/>
+    <tableColumn id="12" xr3:uid="{5C5B86F0-2C62-4EC7-90DB-16CD3F02F215}" name="Error Amplitud (%)" dataDxfId="52">
       <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Amplitud experimental (V)]]-Tabla311[[#This Row],[Amplitud teórica (V)]])/Tabla311[[#This Row],[Amplitud teórica (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A196DC78-24A3-49DB-8F89-7372B726AF8D}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{61205670-DD09-4734-9B60-2A19181A3B09}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{CB6D4961-C564-4255-A528-66DC8939E53F}" name="error tiempo de subida (%)" dataDxfId="35">
+    <tableColumn id="5" xr3:uid="{A196DC78-24A3-49DB-8F89-7372B726AF8D}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{61205670-DD09-4734-9B60-2A19181A3B09}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{CB6D4961-C564-4255-A528-66DC8939E53F}" name="error tiempo de subida (%)" dataDxfId="49">
       <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]-Tabla311[[#This Row],[Tiempo Rampa Subida Teórico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Subida Teórico (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{82C89E9A-C54F-45D9-BA16-F7CA53FDAD9C}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{AADECCD1-0E47-4899-B4DB-3980D5EB4FA0}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="33">
+    <tableColumn id="8" xr3:uid="{82C89E9A-C54F-45D9-BA16-F7CA53FDAD9C}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{AADECCD1-0E47-4899-B4DB-3980D5EB4FA0}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="47">
       <calculatedColumnFormula>Tabla311[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B9442908-7763-415B-A1D9-3FDB69AA335D}" name="error bajada (%)" dataDxfId="32">
+    <tableColumn id="10" xr3:uid="{B9442908-7763-415B-A1D9-3FDB69AA335D}" name="error bajada (%)" dataDxfId="46">
       <calculatedColumnFormula>ABS((Tabla311[[#This Row],[Tiempo Experimental de Rampa de bajada (s)]]-Tabla311[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])/Tabla311[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25935,29 +26060,29 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FD84326B-B51B-43E3-A954-A199DB93B556}" name="Tabla312" displayName="Tabla312" ref="A41:L56" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{FD84326B-B51B-43E3-A954-A199DB93B556}" name="Tabla312" displayName="Tabla312" ref="A41:L56" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A41:L56" xr:uid="{FD84326B-B51B-43E3-A954-A199DB93B556}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{9EA3655E-189F-41AE-BB30-A54F6B6FBD31}" name="Frecuencia teórica (Hz) " dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{43A90E76-0F57-46ED-9A57-AA589374EFAC}" name="Frecuencia experimental (Hz)" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{402459F6-1584-430A-83A0-BCD4F9F04646}" name="Error Frecuencia (%)" dataDxfId="27" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{9EA3655E-189F-41AE-BB30-A54F6B6FBD31}" name="Frecuencia teórica (Hz) " dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{43A90E76-0F57-46ED-9A57-AA589374EFAC}" name="Frecuencia experimental (Hz)" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{402459F6-1584-430A-83A0-BCD4F9F04646}" name="Error Frecuencia (%)" dataDxfId="41" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Frecuencia experimental (Hz)]]-Tabla312[[#This Row],[Frecuencia teórica (Hz) ]])/Tabla312[[#This Row],[Frecuencia teórica (Hz) ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57E12FE0-ED8A-4975-B183-AD60486386D0}" name="Amplitud teórica (V)" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{8BB747FA-A49A-40D7-8EB0-CE09BDEFD4C6}" name="Amplitud experimental (V)" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{5AD41EFA-DE50-4D69-927C-30DDC6471368}" name="Error Amplitud (%)" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{57E12FE0-ED8A-4975-B183-AD60486386D0}" name="Amplitud teórica (V)" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{8BB747FA-A49A-40D7-8EB0-CE09BDEFD4C6}" name="Amplitud experimental (V)" dataDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{5AD41EFA-DE50-4D69-927C-30DDC6471368}" name="Error Amplitud (%)" dataDxfId="38">
       <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Amplitud experimental (V)]]-Tabla312[[#This Row],[Amplitud teórica (V)]])/Tabla312[[#This Row],[Amplitud teórica (V)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{8F77CD90-8B24-4F57-B9D9-D92BD38EEF90}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{369A3313-8A54-4DE9-ABDF-57550D7CA766}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{623ED2C3-F247-4060-B588-027666E64CEF}" name="error tiempo de subida (%)" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{8F77CD90-8B24-4F57-B9D9-D92BD38EEF90}" name="Tiempo Rampa Subida Teórico (s)" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{369A3313-8A54-4DE9-ABDF-57550D7CA766}" name="Tiempo Experimental de Rampa de subida (s)" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{623ED2C3-F247-4060-B588-027666E64CEF}" name="error tiempo de subida (%)" dataDxfId="35">
       <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]-Tabla312[[#This Row],[Tiempo Rampa Subida Teórico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Subida Teórico (s)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E3C34122-9074-4143-952B-814317832A8D}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{60537B1A-AA51-4135-9C45-7A7737C1206F}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{E3C34122-9074-4143-952B-814317832A8D}" name="Tiempo Rampa Bajada Teórico (s)" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{60537B1A-AA51-4135-9C45-7A7737C1206F}" name="Tiempo Experimental de Rampa de bajada (s)" dataDxfId="33">
       <calculatedColumnFormula>Tabla312[[#This Row],[Tiempo Experimental de Rampa de subida (s)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AC06E1BE-4CD9-4E21-87BD-693B0C461F93}" name="error bajada (%)" dataDxfId="18">
+    <tableColumn id="10" xr3:uid="{AC06E1BE-4CD9-4E21-87BD-693B0C461F93}" name="error bajada (%)" dataDxfId="32">
       <calculatedColumnFormula>ABS((Tabla312[[#This Row],[Tiempo Experimental de Rampa de bajada (s)]]-Tabla312[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])/Tabla312[[#This Row],[Tiempo Rampa Bajada Teórico (s)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25973,10 +26098,10 @@
       <calculatedColumnFormula>A2-0.25</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{49D13144-65CF-4487-8945-80595D1BA005}" name="Amplitud Experimental"/>
-    <tableColumn id="3" xr3:uid="{A0130B50-85CF-4CCC-8EE3-A1C864608501}" name="Corriente experimental (mA) a 30Hz" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{A0130B50-85CF-4CCC-8EE3-A1C864608501}" name="Corriente experimental (mA) a 30Hz" dataDxfId="31">
       <calculatedColumnFormula>Tabla5[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{21D4FE8D-0201-4AB3-8FD4-43280EA755BD}" name="Error (%)" dataDxfId="17">
+    <tableColumn id="4" xr3:uid="{21D4FE8D-0201-4AB3-8FD4-43280EA755BD}" name="Error (%)" dataDxfId="30">
       <calculatedColumnFormula>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25992,10 +26117,10 @@
       <calculatedColumnFormula>F2-0.25</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{457B3A8B-A885-48AB-B98E-5C02BB656D53}" name="Amplitud Experimental"/>
-    <tableColumn id="3" xr3:uid="{E1B2A27D-0272-40DA-A4BF-C79E307D9164}" name="Corriente experimental (mA) a 20Hz" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{E1B2A27D-0272-40DA-A4BF-C79E307D9164}" name="Corriente experimental (mA) a 20Hz" dataDxfId="29">
       <calculatedColumnFormula>Tabla59[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{47588B50-F8BD-4B30-9D7E-81347F05E2DE}" name="Error (%)" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{47588B50-F8BD-4B30-9D7E-81347F05E2DE}" name="Error (%)" dataDxfId="28">
       <calculatedColumnFormula>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -26011,10 +26136,10 @@
       <calculatedColumnFormula>K2-0.25</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{D8ACF535-D0C1-46E2-A6E4-8E3909AA46F4}" name="Amplitud Experimental"/>
-    <tableColumn id="3" xr3:uid="{0BAEFC13-7D82-4E71-9D41-4344A6090939}" name="Corriente experimental (mA) a 10Hz" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{0BAEFC13-7D82-4E71-9D41-4344A6090939}" name="Corriente experimental (mA) a 10Hz" dataDxfId="27">
       <calculatedColumnFormula>Tabla510[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DECD44A5-2474-4759-B8DD-BEAD84262CC3}" name="Error (%)" dataDxfId="15">
+    <tableColumn id="4" xr3:uid="{DECD44A5-2474-4759-B8DD-BEAD84262CC3}" name="Error (%)" dataDxfId="26">
       <calculatedColumnFormula>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -26030,10 +26155,10 @@
       <calculatedColumnFormula>A20-0.25</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{CBEB5000-9EE8-4462-AF3E-18FDA130F585}" name="Amplitud Experimental"/>
-    <tableColumn id="3" xr3:uid="{4903257E-67AD-415D-B34E-1448DE1DC636}" name="Corriente experimental (mA) a 30Hz" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{4903257E-67AD-415D-B34E-1448DE1DC636}" name="Corriente experimental (mA) a 30Hz" dataDxfId="25">
       <calculatedColumnFormula>Tabla519[[#This Row],[Amplitud Experimental]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7196AC0B-F8B1-44E4-856C-BBA135EE34CB}" name="Error (%)" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{7196AC0B-F8B1-44E4-856C-BBA135EE34CB}" name="Error (%)" dataDxfId="24">
       <calculatedColumnFormula>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -26341,7 +26466,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27564,20 +27689,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -28263,20 +28388,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -28962,20 +29087,20 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
@@ -29767,7 +29892,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>3.26</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>1.2121212121212133E-2</v>
       </c>
@@ -29781,7 +29906,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>3.24</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>1.8181818181818063E-2</v>
       </c>
@@ -29795,7 +29920,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>3.26</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>1.2121212121212133E-2</v>
       </c>
@@ -29811,7 +29936,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>3.18</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>2.1538461538461489E-2</v>
       </c>
@@ -29825,7 +29950,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>3.24</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>3.0769230769230114E-3</v>
       </c>
@@ -29839,7 +29964,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>3.2</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>1.538461538461533E-2</v>
       </c>
@@ -29856,7 +29981,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>2.95</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>1.6666666666666607E-2</v>
       </c>
@@ -29871,7 +29996,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>3.01</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333332624E-3</v>
       </c>
@@ -29886,7 +30011,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>2.9</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333333361E-2</v>
       </c>
@@ -29903,12 +30028,12 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>2.72</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>1.0909090909090839E-2</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F16" si="1">F5-0.25</f>
+        <f t="shared" ref="F6:F10" si="1">F5-0.25</f>
         <v>2.75</v>
       </c>
       <c r="G6">
@@ -29918,12 +30043,12 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>2.76</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>3.6363636363635587E-3</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K16" si="2">K5-0.25</f>
+        <f t="shared" ref="K6:K10" si="2">K5-0.25</f>
         <v>2.75</v>
       </c>
       <c r="L6">
@@ -29933,7 +30058,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>2.7</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>1.8181818181818118E-2</v>
       </c>
@@ -29950,7 +30075,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>1.9999999999999928E-2</v>
       </c>
@@ -29965,7 +30090,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>2.46</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -29980,7 +30105,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>2.46</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -29997,7 +30122,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>2.21</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>1.7777777777777795E-2</v>
       </c>
@@ -30012,7 +30137,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>2.2222222222222143E-2</v>
       </c>
@@ -30027,7 +30152,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>2.21</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>1.7777777777777795E-2</v>
       </c>
@@ -30044,7 +30169,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>1.97</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>1.5000000000000013E-2</v>
       </c>
@@ -30059,7 +30184,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>1.95</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -30074,7 +30199,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>1.93</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>3.5000000000000031E-2</v>
       </c>
@@ -30091,7 +30216,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>1.74</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>5.7142857142857195E-3</v>
       </c>
@@ -30106,7 +30231,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>1.7</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>2.8571428571428598E-2</v>
       </c>
@@ -30121,7 +30246,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>1.76</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>5.7142857142857195E-3</v>
       </c>
@@ -30138,7 +30263,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>1.49</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>6.6666666666666723E-3</v>
       </c>
@@ -30153,7 +30278,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>1.45</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333333361E-2</v>
       </c>
@@ -30168,7 +30293,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>1.46</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>2.6666666666666689E-2</v>
       </c>
@@ -30185,12 +30310,12 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>1.23</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F16" si="3">F11-0.25</f>
+        <f t="shared" ref="F12:F13" si="3">F11-0.25</f>
         <v>1.25</v>
       </c>
       <c r="G12">
@@ -30200,12 +30325,12 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>1.23</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:K16" si="4">K11-0.25</f>
+        <f t="shared" ref="K12:K13" si="4">K11-0.25</f>
         <v>1.25</v>
       </c>
       <c r="L12">
@@ -30215,7 +30340,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>1.26</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>8.0000000000000071E-3</v>
       </c>
@@ -30232,7 +30357,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>1.02</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -30247,7 +30372,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>0.98</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -30262,7 +30387,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>1.01</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -30279,7 +30404,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>0.76</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>1.3333333333333345E-2</v>
       </c>
@@ -30294,7 +30419,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>0.76</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>1.3333333333333345E-2</v>
       </c>
@@ -30309,7 +30434,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>0.74</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>1.3333333333333345E-2</v>
       </c>
@@ -30326,7 +30451,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>0.52</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -30341,7 +30466,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>0.52</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -30356,7 +30481,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>0.51</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -30373,7 +30498,7 @@
         <f>Tabla5[[#This Row],[Amplitud Experimental]]</f>
         <v>0.26</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <f>ABS((Tabla5[[#This Row],[Amplitud Experimental]]-Tabla5[[#This Row],[Amplitud (V)]])/Tabla5[[#This Row],[Amplitud (V)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -30388,7 +30513,7 @@
         <f>Tabla59[[#This Row],[Amplitud Experimental]]</f>
         <v>0.26</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <f>ABS((Tabla59[[#This Row],[Amplitud Experimental]]-Tabla59[[#This Row],[Amplitud (V)]])/Tabla59[[#This Row],[Amplitud (V)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -30403,7 +30528,7 @@
         <f>Tabla510[[#This Row],[Amplitud Experimental]]</f>
         <v>0.25</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <f>ABS((Tabla510[[#This Row],[Amplitud Experimental]]-Tabla510[[#This Row],[Amplitud (V)]])/Tabla510[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -30477,7 +30602,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>3.35</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>1.5151515151515233E-2</v>
       </c>
@@ -30491,7 +30616,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>3.36</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>1.8181818181818198E-2</v>
       </c>
@@ -30505,7 +30630,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>3.32</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>6.0606060606060667E-3</v>
       </c>
@@ -30521,7 +30646,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>3.22</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>9.2307692307691709E-3</v>
       </c>
@@ -30535,7 +30660,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>3.28</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>9.2307692307691709E-3</v>
       </c>
@@ -30549,7 +30674,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>3.24</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>3.0769230769230114E-3</v>
       </c>
@@ -30566,7 +30691,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>2.9</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333333361E-2</v>
       </c>
@@ -30581,7 +30706,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>3.1</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333333361E-2</v>
       </c>
@@ -30596,14 +30721,14 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>2.9</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333333361E-2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" ref="A24:A34" si="7">A23-0.25</f>
+        <f t="shared" ref="A24:A28" si="7">A23-0.25</f>
         <v>2.75</v>
       </c>
       <c r="B24">
@@ -30613,12 +30738,12 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>2.72</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>1.0909090909090839E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F34" si="8">F23-0.25</f>
+        <f t="shared" ref="F24:F28" si="8">F23-0.25</f>
         <v>2.75</v>
       </c>
       <c r="G24">
@@ -30628,12 +30753,12 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>2.75</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:K34" si="9">K23-0.25</f>
+        <f t="shared" ref="K24:K28" si="9">K23-0.25</f>
         <v>2.75</v>
       </c>
       <c r="L24">
@@ -30643,7 +30768,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>2.76</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>3.6363636363635587E-3</v>
       </c>
@@ -30660,7 +30785,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>1.9999999999999928E-2</v>
       </c>
@@ -30675,7 +30800,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>1.9999999999999928E-2</v>
       </c>
@@ -30690,7 +30815,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>2.46</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -30707,7 +30832,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>2.2222222222222143E-2</v>
       </c>
@@ -30722,7 +30847,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>2.2400000000000002</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>4.4444444444443499E-3</v>
       </c>
@@ -30737,7 +30862,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>2.23</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>8.8888888888888976E-3</v>
       </c>
@@ -30754,7 +30879,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>1.95</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>2.5000000000000022E-2</v>
       </c>
@@ -30769,7 +30894,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>1.96</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -30784,7 +30909,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>1.94</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -30801,7 +30926,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>1.74</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>5.7142857142857195E-3</v>
       </c>
@@ -30816,7 +30941,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>1.76</v>
       </c>
-      <c r="I28" s="12">
+      <c r="I28" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>5.7142857142857195E-3</v>
       </c>
@@ -30831,7 +30956,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>1.75</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -30848,7 +30973,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>1.45</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333333361E-2</v>
       </c>
@@ -30863,7 +30988,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>1.45</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333333361E-2</v>
       </c>
@@ -30878,14 +31003,14 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>1.45</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333333361E-2</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" ref="A30:A34" si="10">A29-0.25</f>
+        <f t="shared" ref="A30:A31" si="10">A29-0.25</f>
         <v>1.25</v>
       </c>
       <c r="B30">
@@ -30895,12 +31020,12 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>1.21</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>3.2000000000000028E-2</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F34" si="11">F29-0.25</f>
+        <f t="shared" ref="F30:F31" si="11">F29-0.25</f>
         <v>1.25</v>
       </c>
       <c r="G30">
@@ -30910,12 +31035,12 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>1.23</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:K34" si="12">K29-0.25</f>
+        <f t="shared" ref="K30:K31" si="12">K29-0.25</f>
         <v>1.25</v>
       </c>
       <c r="L30">
@@ -30925,7 +31050,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>1.26</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>8.0000000000000071E-3</v>
       </c>
@@ -30942,7 +31067,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>1.02</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -30957,7 +31082,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>1</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -30972,7 +31097,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>1.01</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -30989,7 +31114,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>0.76</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>1.3333333333333345E-2</v>
       </c>
@@ -31004,7 +31129,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>0.76</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>1.3333333333333345E-2</v>
       </c>
@@ -31019,7 +31144,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>0.74</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>1.3333333333333345E-2</v>
       </c>
@@ -31036,7 +31161,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>0.51</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -31051,7 +31176,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>0.49</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -31066,7 +31191,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>0.51</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -31083,7 +31208,7 @@
         <f>Tabla519[[#This Row],[Amplitud Experimental]]</f>
         <v>0.25</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <f>ABS((Tabla519[[#This Row],[Amplitud Experimental]]-Tabla519[[#This Row],[Amplitud (V)]])/Tabla519[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -31098,7 +31223,7 @@
         <f>Tabla5920[[#This Row],[Amplitud Experimental]]</f>
         <v>0.25</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="11">
         <f>ABS((Tabla5920[[#This Row],[Amplitud Experimental]]-Tabla5920[[#This Row],[Amplitud (V)]])/Tabla5920[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -31113,7 +31238,7 @@
         <f>Tabla51021[[#This Row],[Amplitud Experimental]]</f>
         <v>0.25</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="11">
         <f>ABS((Tabla51021[[#This Row],[Amplitud Experimental]]-Tabla51021[[#This Row],[Amplitud (V)]])/Tabla51021[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -31187,7 +31312,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>3.35</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>1.5151515151515233E-2</v>
       </c>
@@ -31201,7 +31326,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>3.3</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -31215,7 +31340,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>3.3</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -31231,7 +31356,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>3.21</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>1.2307692307692318E-2</v>
       </c>
@@ -31245,7 +31370,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>3.2</v>
       </c>
-      <c r="I40" s="12">
+      <c r="I40" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>1.538461538461533E-2</v>
       </c>
@@ -31259,7 +31384,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>3.2</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>1.538461538461533E-2</v>
       </c>
@@ -31276,7 +31401,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>3.1</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333333361E-2</v>
       </c>
@@ -31291,7 +31416,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>2.9</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333333361E-2</v>
       </c>
@@ -31306,14 +31431,14 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>2.9</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>3.3333333333333361E-2</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" ref="A42:A52" si="16">A41-0.25</f>
+        <f t="shared" ref="A42:A46" si="16">A41-0.25</f>
         <v>2.75</v>
       </c>
       <c r="B42">
@@ -31323,12 +31448,12 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>2.72</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>1.0909090909090839E-2</v>
       </c>
       <c r="F42">
-        <f t="shared" ref="F42:F52" si="17">F41-0.25</f>
+        <f t="shared" ref="F42:F46" si="17">F41-0.25</f>
         <v>2.75</v>
       </c>
       <c r="G42">
@@ -31338,12 +31463,12 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>2.74</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>3.6363636363635587E-3</v>
       </c>
       <c r="K42">
-        <f t="shared" ref="K42:K52" si="18">K41-0.25</f>
+        <f t="shared" ref="K42:K46" si="18">K41-0.25</f>
         <v>2.75</v>
       </c>
       <c r="L42">
@@ -31353,7 +31478,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>2.7</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>1.8181818181818118E-2</v>
       </c>
@@ -31370,7 +31495,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>2.52</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>8.0000000000000071E-3</v>
       </c>
@@ -31385,7 +31510,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="I43" s="12">
+      <c r="I43" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>1.9999999999999928E-2</v>
       </c>
@@ -31400,7 +31525,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>2.46</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>1.6000000000000014E-2</v>
       </c>
@@ -31417,7 +31542,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>2.25</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -31432,7 +31557,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>2.25</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -31447,7 +31572,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>2.21</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>1.7777777777777795E-2</v>
       </c>
@@ -31464,7 +31589,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>2.4999999999999911E-2</v>
       </c>
@@ -31479,7 +31604,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>1.94</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -31494,7 +31619,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>1.93</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>3.5000000000000031E-2</v>
       </c>
@@ -31511,7 +31636,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>1.76</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>5.7142857142857195E-3</v>
       </c>
@@ -31526,7 +31651,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>1.7</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>2.8571428571428598E-2</v>
       </c>
@@ -31541,7 +31666,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>1.76</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>5.7142857142857195E-3</v>
       </c>
@@ -31558,7 +31683,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>1.46</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>2.6666666666666689E-2</v>
       </c>
@@ -31573,7 +31698,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>1.44</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -31588,14 +31713,14 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>1.46</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>2.6666666666666689E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" ref="A48:A52" si="19">A47-0.25</f>
+        <f t="shared" ref="A48:A49" si="19">A47-0.25</f>
         <v>1.25</v>
       </c>
       <c r="B48">
@@ -31605,12 +31730,12 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>1.21</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>3.2000000000000028E-2</v>
       </c>
       <c r="F48">
-        <f t="shared" ref="F48:F52" si="20">F47-0.25</f>
+        <f t="shared" ref="F48:F49" si="20">F47-0.25</f>
         <v>1.25</v>
       </c>
       <c r="G48">
@@ -31620,12 +31745,12 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>1.23</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="K48">
-        <f t="shared" ref="K48:K52" si="21">K47-0.25</f>
+        <f t="shared" ref="K48:K49" si="21">K47-0.25</f>
         <v>1.25</v>
       </c>
       <c r="L48">
@@ -31635,7 +31760,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>1.26</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>8.0000000000000071E-3</v>
       </c>
@@ -31652,7 +31777,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>1.02</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -31667,7 +31792,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>0.98</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -31682,7 +31807,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>1.01</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N49" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>1.0000000000000009E-2</v>
       </c>
@@ -31699,7 +31824,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>0.76</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>1.3333333333333345E-2</v>
       </c>
@@ -31714,7 +31839,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>0.76</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>1.3333333333333345E-2</v>
       </c>
@@ -31729,7 +31854,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>0.74</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N50" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>1.3333333333333345E-2</v>
       </c>
@@ -31746,7 +31871,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>0.51</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -31761,7 +31886,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>0.5</v>
       </c>
-      <c r="I51" s="12">
+      <c r="I51" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -31776,7 +31901,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>0.51</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N51" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -31793,7 +31918,7 @@
         <f>Tabla522[[#This Row],[Amplitud Experimental]]</f>
         <v>0.26</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <f>ABS((Tabla522[[#This Row],[Amplitud Experimental]]-Tabla522[[#This Row],[Amplitud (V)]])/Tabla522[[#This Row],[Amplitud (V)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -31808,7 +31933,7 @@
         <f>Tabla5923[[#This Row],[Amplitud Experimental]]</f>
         <v>0.26</v>
       </c>
-      <c r="I52" s="12">
+      <c r="I52" s="11">
         <f>ABS((Tabla5923[[#This Row],[Amplitud Experimental]]-Tabla5923[[#This Row],[Amplitud (V)]])/Tabla5923[[#This Row],[Amplitud (V)]])</f>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -31823,7 +31948,7 @@
         <f>Tabla51024[[#This Row],[Amplitud Experimental]]</f>
         <v>0.25</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N52" s="11">
         <f>ABS((Tabla51024[[#This Row],[Amplitud Experimental]]-Tabla51024[[#This Row],[Amplitud (V)]])/Tabla51024[[#This Row],[Amplitud (V)]])</f>
         <v>0</v>
       </c>
@@ -31854,4 +31979,395 @@
     <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB01486E-F9B2-479C-85FA-5C7FE4BEC3F5}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="31.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="C3" s="14">
+        <f>((Tabla4[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.36180400000000001</v>
+      </c>
+      <c r="D3" s="14">
+        <f>(550/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.173533874694586</v>
+      </c>
+      <c r="E3" s="14">
+        <f>(1000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.31551613580833815</v>
+      </c>
+      <c r="F3" s="14">
+        <f>(4000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.2620645432333526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="C4" s="14">
+        <f>((Tabla4[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.35907700000000004</v>
+      </c>
+      <c r="D4" s="14">
+        <f>(550/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.00136986</f>
+        <v>2.0982212728746199</v>
+      </c>
+      <c r="E4" s="14">
+        <f>(1000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.31791231407191212</v>
+      </c>
+      <c r="F4" s="14">
+        <f>(4000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.2716492562876485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="C5" s="14">
+        <f>((Tabla4[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.35907700000000004</v>
+      </c>
+      <c r="D5" s="14">
+        <f>(550/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.17485177273955166</v>
+      </c>
+      <c r="E5" s="14">
+        <f>(1000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.31791231407191212</v>
+      </c>
+      <c r="F5" s="14">
+        <f>(4000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.2716492562876485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.72</v>
+      </c>
+      <c r="C6" s="14">
+        <f>((Tabla4[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.35634999999999994</v>
+      </c>
+      <c r="D6" s="14">
+        <f>(550/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.17618984144801461</v>
+      </c>
+      <c r="E6" s="14">
+        <f>(1000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.32034516626911747</v>
+      </c>
+      <c r="F6" s="14">
+        <f>(4000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.2813806650764699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C7" s="14">
+        <f>((Tabla4[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.35453199999999996</v>
+      </c>
+      <c r="D7" s="14">
+        <f>(550/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.17709332302866879</v>
+      </c>
+      <c r="E7" s="14">
+        <f>(1000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.3219878600521251</v>
+      </c>
+      <c r="F7" s="14">
+        <f>(4000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.2879514402085004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="C8" s="14">
+        <f>((Tabla4[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.35362299999999997</v>
+      </c>
+      <c r="D8" s="14">
+        <f>(550/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.17754854746439006</v>
+      </c>
+      <c r="E8" s="14">
+        <f>(1000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.32281554084434555</v>
+      </c>
+      <c r="F8" s="14">
+        <f>(4000/Tabla4[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.2912621633773822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="C12" s="14">
+        <f>((Tabla47[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.35453199999999996</v>
+      </c>
+      <c r="D12" s="14">
+        <f>(550/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.17709332302866879</v>
+      </c>
+      <c r="E12" s="14">
+        <f>(1000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.3219878600521251</v>
+      </c>
+      <c r="F12" s="14">
+        <f>(4000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.2879514402085004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="C13" s="14">
+        <f>((Tabla47[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.34816900000000001</v>
+      </c>
+      <c r="D13" s="14">
+        <f>(550/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.00136986</f>
+        <v>2.1639577331698114</v>
+      </c>
+      <c r="E13" s="14">
+        <f>(1000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.32787238381360773</v>
+      </c>
+      <c r="F13" s="14">
+        <f>(4000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.3114895352544309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.63</v>
+      </c>
+      <c r="C14" s="14">
+        <f>((Tabla47[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.34816900000000001</v>
+      </c>
+      <c r="D14" s="14">
+        <f>(550/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.18032981109748425</v>
+      </c>
+      <c r="E14" s="14">
+        <f>(1000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.32787238381360773</v>
+      </c>
+      <c r="F14" s="14">
+        <f>(4000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.3114895352544309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C15" s="14">
+        <f>((Tabla47[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.34544200000000003</v>
+      </c>
+      <c r="D15" s="14">
+        <f>(550/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.18175337683315865</v>
+      </c>
+      <c r="E15" s="14">
+        <f>(1000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.33046068515119759</v>
+      </c>
+      <c r="F15" s="14">
+        <f>(4000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.3218427406047903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="C16" s="14">
+        <f>((Tabla47[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.34362399999999999</v>
+      </c>
+      <c r="D16" s="14">
+        <f>(550/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.18271497334295625</v>
+      </c>
+      <c r="E16" s="14">
+        <f>(1000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.33220904244173866</v>
+      </c>
+      <c r="F16" s="14">
+        <f>(4000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.3288361697669546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="C17" s="14">
+        <f>((Tabla47[[#This Row],[Consumo en uso (mA)]]*10^-3*9.09%) + (0.22*10^-3*90.91%))*10^3</f>
+        <v>0.34362399999999999</v>
+      </c>
+      <c r="D17" s="14">
+        <f>(550/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.18271497334295625</v>
+      </c>
+      <c r="E17" s="14">
+        <f>(1000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>0.33220904244173866</v>
+      </c>
+      <c r="F17" s="14">
+        <f>(4000/Tabla47[[#This Row],[Consumo estimado (mA)]])*0.000114155</f>
+        <v>1.3288361697669546</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF660AE-02D2-462B-B82D-C4B18BEFDBE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>